--- a/sgd_assignment1_tables&graphs.xlsx
+++ b/sgd_assignment1_tables&graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\OneDrive\Ambiente de Trabalho\SGD-TPCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87673813-0BF9-467E-9EC0-09150F0C020C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7AB115-B970-44B1-AEED-E4AEF91E1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{247B33D0-6AB8-40A3-8C41-44B27BA98C90}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="85">
   <si>
     <t>Q1</t>
   </si>
@@ -295,9 +295,6 @@
   <si>
     <t>Rows</t>
   </si>
-  <si>
-    <t>Absolutely, here's the data formatted as a Google Sheets table, similar to the previous one:</t>
-  </si>
 </sst>
 </file>
 
@@ -494,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -549,11 +546,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4239,7 +4246,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2579.5950824419601</c:v>
+                  <c:v>254.94487826328483</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>52.929609457651736</c:v>
@@ -4358,70 +4365,70 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>189.25566384792305</c:v>
+                  <c:v>354.75388593673637</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.825162124633742</c:v>
+                  <c:v>13.082218980789099</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>546.38418822288179</c:v>
+                  <c:v>1264.7146480560259</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100.21389079093898</c:v>
+                  <c:v>136.92517867088281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>322.23930556774127</c:v>
+                  <c:v>756.47693457603395</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56.986880850791906</c:v>
+                  <c:v>129.49137730598397</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>243.76486344337442</c:v>
+                  <c:v>513.80241379737822</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>138.58812627792338</c:v>
+                  <c:v>391.28609972000061</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1174.6765144586552</c:v>
+                  <c:v>2373.3484481811456</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>110.68573498725866</c:v>
+                  <c:v>340.07605986595098</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>35.987437081336964</c:v>
+                  <c:v>160.04542603492678</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>81.273595142364229</c:v>
+                  <c:v>153.68513107299742</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>799.30343711375951</c:v>
+                  <c:v>1831.436336565014</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>71.573976969718728</c:v>
+                  <c:v>137.20876836776702</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18.890755534172033</c:v>
+                  <c:v>1.138963699340814E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>56.817186594009129</c:v>
+                  <c:v>132.3307879447934</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48.211100912094047</c:v>
+                  <c:v>67.029065704345655</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>168.58993432521774</c:v>
+                  <c:v>129.50369310378977</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.000493073463403</c:v>
+                  <c:v>70.392898368835375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>176.41999056339242</c:v>
+                  <c:v>294.2160739898676</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1541.4275218486766</c:v>
+                  <c:v>419.80496568679763</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.567874860763521</c:v>
+                  <c:v>14.60571494102474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4875,7 +4882,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2641.4571911334961</c:v>
+                  <c:v>170.32293924419997</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>10.802513551712023</c:v>
@@ -10798,8 +10805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5F3338-F5F4-46D3-A61E-670C9DC8D3B7}">
   <dimension ref="B8:Q96"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10818,17 +10825,17 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -11729,17 +11736,17 @@
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="20" t="s">
+      <c r="B38" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="25"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -12992,8 +12999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F7174-EA87-44DE-A404-B76B78C6C87E}">
   <dimension ref="C5:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37:J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13010,17 +13017,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
@@ -13800,17 +13807,17 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
@@ -14535,10 +14542,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F367539-F476-4269-9596-D1A2C0F3D96F}">
-  <dimension ref="C5:Q58"/>
+  <dimension ref="C5:K58"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J57" sqref="J57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14555,725 +14562,726 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="K6" s="8" t="s">
+      <c r="K6" s="22" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="19">
         <v>64.0001540184021</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="19">
         <v>57.860941886901799</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="19">
         <v>66.376424551010103</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="19">
         <v>66.112741708755493</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="19">
         <v>62.3278038501739</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="19">
         <v>69.581334352493201</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="23">
         <f>AVERAGE(D7:H7)</f>
         <v>63.33561320304868</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="23">
         <f>_xlfn.STDEV.P(D7:H7)</f>
         <v>3.1108936528899287</v>
       </c>
     </row>
     <row r="8" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="19">
         <v>11.2891526222229</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="19">
         <v>10.1152460575103</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="19">
         <v>11.800162315368601</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="19">
         <v>11.8232951164245</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="19">
         <v>15.1887099742889</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="19">
         <v>12.4443078041076</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="23">
         <f t="shared" ref="J8:J28" si="0">AVERAGE(D8:H8)</f>
         <v>12.043313217163041</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="23">
         <f t="shared" ref="K8:K28" si="1">_xlfn.STDEV.P(D8:H8)</f>
         <v>1.6903994948251526</v>
       </c>
     </row>
     <row r="9" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="19">
         <v>30.116919994354198</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="19">
         <v>28.070521354675201</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="19">
         <v>31.2290291786193</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="19">
         <v>30.851280927657999</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="19">
         <v>31.0562324523925</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="19">
         <v>30.2217309474945</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="23">
         <f t="shared" si="0"/>
         <v>30.264796781539836</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="23">
         <f t="shared" si="1"/>
         <v>1.1607575443178382</v>
       </c>
     </row>
     <row r="10" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="19">
         <v>39.680542945861802</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="19">
         <v>35.463392257690401</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="19">
         <v>36.985944271087597</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="19">
         <v>41.9373681545257</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="19">
         <v>56.703636884689303</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="19">
         <v>37.811415672302203</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="23">
         <f t="shared" si="0"/>
         <v>42.154176902770963</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="23">
         <f t="shared" si="1"/>
         <v>7.6069689686967275</v>
       </c>
     </row>
     <row r="11" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="19">
         <v>30.457514047622599</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="19">
         <v>28.155177831649699</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="19">
         <v>29.715933084487901</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="19">
         <v>36.1554563045501</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="19">
         <v>32.279606580734203</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="19">
         <v>29.5882954597473</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="23">
         <f t="shared" si="0"/>
         <v>31.352737569808902</v>
       </c>
-      <c r="K11" s="9">
+      <c r="K11" s="23">
         <f t="shared" si="1"/>
         <v>2.7433605583439848</v>
       </c>
     </row>
     <row r="12" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="19">
         <v>22.3648827075958</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="19">
         <v>20.411009311676001</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="19">
         <v>20.4435920715332</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="19">
         <v>25.230216264724699</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="19">
         <v>24.142680406570399</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="19">
         <v>20.739531755447299</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="23">
         <f t="shared" si="0"/>
         <v>22.518476152420021</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="23">
         <f t="shared" si="1"/>
         <v>1.9370970691283635</v>
       </c>
     </row>
     <row r="13" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="19">
         <v>29.969155311584402</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="19">
         <v>27.050234556198099</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="19">
         <v>27.560783147811801</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="19">
         <v>34.336606740951503</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="19">
         <v>30.993014812469401</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="19">
         <v>28.384186267852701</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="23">
         <f t="shared" si="0"/>
         <v>29.981958913803037</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="23">
         <f t="shared" si="1"/>
         <v>2.6245935098503925</v>
       </c>
     </row>
     <row r="14" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="19">
         <v>30.421542882919301</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="19">
         <v>27.330114364623999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="19">
         <v>27.944201707839898</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="19">
         <v>34.355662822723303</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="19">
         <v>32.666440963745103</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="19">
         <v>28.029461622238099</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="23">
         <f t="shared" si="0"/>
         <v>30.54359254837032</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="23">
         <f t="shared" si="1"/>
         <v>2.6883651564230844</v>
       </c>
     </row>
     <row r="15" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="19">
         <v>45.235015153884802</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="19">
         <v>39.440730810165398</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="19">
         <v>43.998061180114703</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="19">
         <v>56.277429580688398</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="19">
         <v>62.6246078014373</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="19">
         <v>47.013283252716001</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="23">
         <f t="shared" si="0"/>
         <v>49.515168905258122</v>
       </c>
-      <c r="K15" s="9">
+      <c r="K15" s="23">
         <f t="shared" si="1"/>
         <v>8.5771563391745858</v>
       </c>
     </row>
     <row r="16" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="19">
         <v>31.439683914184499</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="19">
         <v>28.5523147583007</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="19">
         <v>31.512265920638999</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="19">
         <v>36.5184390544891</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="19">
         <v>33.110831737518303</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="19">
         <v>31.127403974532999</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="23">
         <f t="shared" si="0"/>
         <v>32.226707077026319</v>
       </c>
-      <c r="K16" s="9">
+      <c r="K16" s="23">
         <f t="shared" si="1"/>
         <v>2.6012162662249398</v>
       </c>
     </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C17" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="19">
         <v>6.5764472484588596</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="19">
         <v>6.01344871520996</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="19">
         <v>6.65913534164428</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="19">
         <v>8.2712528705596906</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="19">
         <v>8.1299188137054408</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="19">
         <v>6.6061971187591499</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="23">
         <f t="shared" si="0"/>
         <v>7.1300405979156469</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="23">
         <f t="shared" si="1"/>
         <v>0.90300793873756813</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="19">
         <v>28.579901933670001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="19">
         <v>25.055998563766401</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F18" s="19">
         <v>28.8946788311004</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="19">
         <v>33.533298254012998</v>
       </c>
-      <c r="H18" s="7">
+      <c r="H18" s="19">
         <v>32.538560390472398</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="19">
         <v>27.9399654865264</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="23">
         <f t="shared" si="0"/>
         <v>29.720487594604435</v>
       </c>
-      <c r="K18" s="9">
+      <c r="K18" s="23">
         <f t="shared" si="1"/>
         <v>3.0403754074103744</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="19">
         <v>58.004550218582096</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E19" s="19">
         <v>50.908254146575899</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F19" s="19">
         <v>60.4556596279144</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="19">
         <v>72.7278985977172</v>
       </c>
-      <c r="H19" s="7">
+      <c r="H19" s="19">
         <v>68.860414505004798</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="19">
         <v>62.515816450118997</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="23">
         <f t="shared" si="0"/>
         <v>62.191355419158882</v>
       </c>
-      <c r="K19" s="9">
+      <c r="K19" s="23">
         <f t="shared" si="1"/>
         <v>7.7890364389802391</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C20" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="19">
         <v>19.637489080428999</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="19">
         <v>18.720854520797701</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F20" s="19">
         <v>18.739871025085399</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="19">
         <v>21.149337530136101</v>
       </c>
-      <c r="H20" s="7">
+      <c r="H20" s="19">
         <v>23.4136755466461</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="19">
         <v>19.120045185089101</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="23">
         <f t="shared" si="0"/>
         <v>20.33224554061886</v>
       </c>
-      <c r="K20" s="9">
+      <c r="K20" s="23">
         <f t="shared" si="1"/>
         <v>1.7763881533513179</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C21" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="19">
         <v>37.056133508682201</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E21" s="19">
         <v>35.274138450622502</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="19">
         <v>36.964099168777402</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="19">
         <v>38.189855575561502</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="19">
         <v>41.336944103240903</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="19">
         <v>35.996903181076</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="23">
         <f t="shared" si="0"/>
         <v>37.764234161376905</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="23">
         <f t="shared" si="1"/>
         <v>2.0143291243663581</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C22" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="19">
         <v>10.0704312324523</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="19">
         <v>8.5204789638519198</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F22" s="19">
         <v>9.8714163303375209</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="19">
         <v>10.5706801414489</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="19">
         <v>12.559695005416801</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="19">
         <v>10.032133579254101</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="23">
         <f t="shared" si="0"/>
         <v>10.318540334701488</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="23">
         <f t="shared" si="1"/>
         <v>1.310026826859237</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
+      <c r="D23" s="19">
         <v>0</v>
       </c>
-      <c r="F23" s="7">
+      <c r="E23" s="19">
         <v>0</v>
       </c>
-      <c r="G23" s="7">
+      <c r="F23" s="19">
         <v>0</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7">
+      <c r="G23" s="19">
         <v>0</v>
       </c>
-      <c r="J23" s="9">
+      <c r="H23" s="19"/>
+      <c r="I23" s="19">
+        <v>0</v>
+      </c>
+      <c r="J23" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C24" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="19">
         <v>221.913088321685</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="19">
         <v>216.57733273506099</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F24" s="19">
         <v>242.10486268997099</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="19">
         <v>230.458415985107</v>
       </c>
-      <c r="H24" s="7">
+      <c r="H24" s="19">
         <v>284.67760705947802</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="19">
         <v>221.21555423736501</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="23">
         <f t="shared" si="0"/>
         <v>239.14626135826038</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="23">
         <f t="shared" si="1"/>
         <v>24.346146358466026</v>
       </c>
-      <c r="Q24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="19">
         <v>19.472764492034901</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="19">
         <v>20.865331172943101</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F25" s="19">
         <v>21.047028541564899</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="19">
         <v>22.2864732742309</v>
       </c>
-      <c r="H25" s="7">
+      <c r="H25" s="19">
         <v>22.356169462203901</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="19">
         <v>21.300621032714801</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="23">
         <f t="shared" si="0"/>
         <v>21.20555338859554</v>
       </c>
-      <c r="K25" s="9">
+      <c r="K25" s="23">
         <f t="shared" si="1"/>
         <v>1.0616726229117204</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
+      <c r="D26" s="19">
         <v>0</v>
       </c>
-      <c r="F26" s="7">
+      <c r="E26" s="19">
         <v>0</v>
       </c>
-      <c r="G26" s="7">
+      <c r="F26" s="19">
         <v>0</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7">
+      <c r="G26" s="19">
         <v>0</v>
       </c>
-      <c r="J26" s="9">
+      <c r="H26" s="19"/>
+      <c r="I26" s="19">
+        <v>0</v>
+      </c>
+      <c r="J26" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K26" s="9">
+      <c r="K26" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="7">
-        <v>2446.8583312034598</v>
-      </c>
-      <c r="E27" s="7">
-        <v>2484.6778788566498</v>
-      </c>
-      <c r="F27" s="7">
-        <v>2907.15026760101</v>
-      </c>
-      <c r="G27" s="7">
-        <v>2768.7846627235399</v>
-      </c>
-      <c r="H27" s="7">
-        <v>2599.8148152828198</v>
-      </c>
-      <c r="I27" s="7">
-        <v>2913.2283632755202</v>
-      </c>
-      <c r="J27" s="9">
+      <c r="D27" s="19">
+        <v>170.32480161800001</v>
+      </c>
+      <c r="E27" s="19">
+        <v>168.67221450700001</v>
+      </c>
+      <c r="F27" s="19">
+        <v>173.89773677299999</v>
+      </c>
+      <c r="G27" s="19">
+        <v>168.26965442700001</v>
+      </c>
+      <c r="H27" s="19">
+        <v>170.45028889599999</v>
+      </c>
+      <c r="I27" s="19">
+        <v>174.669687186</v>
+      </c>
+      <c r="J27" s="23">
         <f t="shared" si="0"/>
-        <v>2641.4571911334961</v>
-      </c>
-      <c r="K27" s="9">
+        <v>170.32293924419997</v>
+      </c>
+      <c r="K27" s="23">
         <f t="shared" si="1"/>
-        <v>173.77436658773661</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
+        <v>1.9867697135154982</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="19">
         <v>9.3544542789459193</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="19">
         <v>11.0285313129425</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F28" s="19">
         <v>11.247937202453601</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="19">
         <v>11.8857760429382</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="19">
         <v>10.4958689212799</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="19">
         <v>12.607521772384599</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="23">
         <f t="shared" si="0"/>
         <v>10.802513551712023</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="23">
         <f t="shared" si="1"/>
         <v>0.85015886383027095</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
@@ -15284,7 +15292,7 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -15295,7 +15303,7 @@
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
     </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -15306,7 +15314,7 @@
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
     </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -15340,17 +15348,17 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="25"/>
+      <c r="K35" s="25"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
@@ -16005,31 +16013,31 @@
       <c r="C57" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="19">
-        <v>2599.6444351673099</v>
+      <c r="D57">
+        <v>254.96321797370899</v>
       </c>
       <c r="E57" s="19">
-        <v>2599.7643129825501</v>
+        <v>250.963217974</v>
       </c>
       <c r="F57" s="19">
-        <v>2566.8376481533001</v>
+        <v>254.963217974</v>
       </c>
       <c r="G57" s="19">
-        <v>2584.75719571113</v>
+        <v>250.85317971200001</v>
       </c>
       <c r="H57" s="19">
-        <v>2536.6981668472199</v>
+        <v>258.963217972</v>
       </c>
       <c r="I57" s="19">
-        <v>2589.86873579025</v>
+        <v>258.96321797399997</v>
       </c>
       <c r="J57" s="9">
         <f t="shared" si="2"/>
-        <v>2579.5950824419601</v>
+        <v>254.94487826328483</v>
       </c>
       <c r="K57" s="9">
         <f t="shared" si="3"/>
-        <v>22.150497620449638</v>
+        <v>3.2886267759549956</v>
       </c>
     </row>
     <row r="58" spans="3:11" x14ac:dyDescent="0.25">
@@ -16077,8 +16085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB0DE57-CC1C-42F4-9D16-9132C59C104F}">
   <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16091,13 +16099,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="26"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -16269,11 +16277,11 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -16385,11 +16393,11 @@
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="24"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -16504,35 +16512,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84608353-83C5-4835-B580-A120DB25BDA7}">
   <dimension ref="B3:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="6.28515625" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
     <col min="13" max="13" width="17" customWidth="1"/>
     <col min="14" max="14" width="20.5703125" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
@@ -16573,8 +16582,7 @@
         <v>109.16129084428115</v>
       </c>
       <c r="H5" s="9">
-        <f>AVERAGE(B5:F5)</f>
-        <v>189.25566384792305</v>
+        <v>354.75388593673637</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -16595,8 +16603,7 @@
         <v>22.587079962094588</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" ref="H6:H26" si="0">AVERAGE(B6:F6)</f>
-        <v>10.825162124633742</v>
+        <v>13.082218980789099</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -16617,8 +16624,7 @@
         <v>65.364525357882101</v>
       </c>
       <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>546.38418822288179</v>
+        <v>1264.7146480560259</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -16639,8 +16645,7 @@
         <v>68.793136835098224</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="0"/>
-        <v>100.21389079093898</v>
+        <v>136.92517867088281</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -16661,8 +16666,7 @@
         <v>65.004720250765388</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>322.23930556774127</v>
+        <v>756.47693457603395</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
@@ -16683,8 +16687,7 @@
         <v>66.386156717936132</v>
       </c>
       <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>56.986880850791906</v>
+        <v>129.49137730598397</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
@@ -16705,8 +16708,7 @@
         <v>52.922709345817537</v>
       </c>
       <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>243.76486344337442</v>
+        <v>513.80241379737822</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -16727,8 +16729,7 @@
         <v>55.853649298349985</v>
       </c>
       <c r="H12" s="9">
-        <f t="shared" si="0"/>
-        <v>138.58812627792338</v>
+        <v>391.28609972000061</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -16749,8 +16750,7 @@
         <v>99.51390922069497</v>
       </c>
       <c r="H13" s="9">
-        <f t="shared" si="0"/>
-        <v>1174.6765144586552</v>
+        <v>2373.3484481811456</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -16771,8 +16771,7 @@
         <v>65.464872876802986</v>
       </c>
       <c r="H14" s="9">
-        <f t="shared" si="0"/>
-        <v>110.68573498725866</v>
+        <v>340.07605986595098</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -16793,8 +16792,7 @@
         <v>15.19534341494238</v>
       </c>
       <c r="H15" s="9">
-        <f t="shared" si="0"/>
-        <v>35.987437081336964</v>
+        <v>160.04542603492678</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
@@ -16815,8 +16813,7 @@
         <v>62.032307187716121</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="0"/>
-        <v>81.273595142364229</v>
+        <v>153.68513107299742</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -16837,8 +16834,7 @@
         <v>81.264069875081219</v>
       </c>
       <c r="H17" s="9">
-        <f t="shared" si="0"/>
-        <v>799.30343711375951</v>
+        <v>1831.436336565014</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -16859,8 +16855,7 @@
         <v>34.734125415484051</v>
       </c>
       <c r="H18" s="9">
-        <f t="shared" si="0"/>
-        <v>71.573976969718728</v>
+        <v>137.20876836776702</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -16881,8 +16876,7 @@
         <v>98.61200451850884</v>
       </c>
       <c r="H19" s="9">
-        <f t="shared" si="0"/>
-        <v>18.890755534172033</v>
+        <v>1.138963699340814E-2</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -16903,8 +16897,7 @@
         <v>18.053256114323869</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="0"/>
-        <v>56.817186594009129</v>
+        <v>132.3307879447934</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -16925,8 +16918,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="0"/>
-        <v>48.211100912094047</v>
+        <v>67.029065704345655</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -16947,8 +16939,7 @@
         <v>279.53225533167466</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="0"/>
-        <v>168.58993432521774</v>
+        <v>129.50369310378977</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -16969,8 +16960,7 @@
         <v>46.160212278366053</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="0"/>
-        <v>40.000493073463403</v>
+        <v>70.392898368835375</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
@@ -16991,8 +16981,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="0"/>
-        <v>176.41999056339242</v>
+        <v>294.2160739898676</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -17000,7 +16989,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="9">
-        <v>2641.4571911334961</v>
+        <v>170.32293924419997</v>
       </c>
       <c r="D25" s="9">
         <v>441.39785256385738</v>
@@ -17010,11 +16999,10 @@
         <v>20</v>
       </c>
       <c r="G25" s="9">
-        <v>2579.5950824419601</v>
+        <v>254.94487826328483</v>
       </c>
       <c r="H25" s="9">
-        <f t="shared" si="0"/>
-        <v>1541.4275218486766</v>
+        <v>419.80496568679763</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
@@ -17035,8 +17023,7 @@
         <v>52.929609457651736</v>
       </c>
       <c r="H26" s="9">
-        <f t="shared" si="0"/>
-        <v>11.567874860763521</v>
+        <v>14.60571494102474</v>
       </c>
     </row>
   </sheetData>

--- a/sgd_assignment1_tables&graphs.xlsx
+++ b/sgd_assignment1_tables&graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\OneDrive\Ambiente de Trabalho\SGD-TPCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7AB115-B970-44B1-AEED-E4AEF91E1281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41880C3-4DBE-4B3D-8E65-357CC22748AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{247B33D0-6AB8-40A3-8C41-44B27BA98C90}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="92">
   <si>
     <t>Q1</t>
   </si>
@@ -159,12 +159,6 @@
   </si>
   <si>
     <t>Tab4 - TPC-H queries on a 25GB MySql Database running with 5 threads and PK&amp;FK</t>
-  </si>
-  <si>
-    <t>Tab4 - TPC-H queries on a 25GB Postgres Database running with 1 thread and PK&amp;FK</t>
-  </si>
-  <si>
-    <t>Tab5 - TPC-H queries on a 25GB Postgres Database running with 5 threads and PK&amp;FK</t>
   </si>
   <si>
     <t>MySql 25GB</t>
@@ -294,6 +288,33 @@
   </si>
   <si>
     <t>Rows</t>
+  </si>
+  <si>
+    <t>Times with old BD</t>
+  </si>
+  <si>
+    <t>Tab6 - TPC-H queries on a 25GB MySql Database running with 5 threads and no PK&amp;FK</t>
+  </si>
+  <si>
+    <t>Tab5 - TPC-H queries on a 25GB MySql Database running with 5 threads and no PK&amp;FK</t>
+  </si>
+  <si>
+    <t>Tab7 - TPC-H queries on a 25GB Postgres Database running with 1 thread and PK&amp;FK</t>
+  </si>
+  <si>
+    <t>Tab8 - TPC-H queries on a 25GB Postgres Database running with 5 threads and PK&amp;FK</t>
+  </si>
+  <si>
+    <t>Tab9 - TPC-H queries on a 25GB Postgres Database running with 1 thread and No PK&amp;FK</t>
+  </si>
+  <si>
+    <t>Tab10 - TPC-H queries on a 25GB Postgres Database running with 5 threads and No PK&amp;FK</t>
+  </si>
+  <si>
+    <t>MySQL vs PostgreSQL Query Execution With NO Keys and 1 Thread</t>
+  </si>
+  <si>
+    <t>MySQL vs PostgreSQL Query Execution With NO Keys and 5 Threads</t>
   </si>
 </sst>
 </file>
@@ -491,7 +512,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -576,6 +597,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1121,6 +1145,1278 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1827883471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MySQL vs PostgreSQL Query Execution With NO Keys and 1 Thread</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$M$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average PostgreSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$L$5:$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$M$5:$M$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>116.9675579679008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.594332771510764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.74508735107636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.616771484412283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.912947954404366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.768268213773737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.953879269106622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154.21090982325117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.076129866845363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2979363248562938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.52043738782654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.053965400408423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.062456151499617</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.169490972404446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.74417039926348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>515.23842489668948</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.932328873944826</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.9319043519417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1C5-40F3-9912-609E136F4AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$N$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$L$5:$L$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$N$5:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>475.84391209972466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>312.956559834568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>392.31696983903601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>931.34081055482238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>186.05480867295162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1670.3729889615454</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1514.7138579122741</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>774.86873173797937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1189.074894431408</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>64.549612987827373</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>257.27325550513859</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>629.07690983426869</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>180.92747136796459</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0373339553760363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>52.689325368155622</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1777.9952695612719</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>146.2173435912018</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1C5-40F3-9912-609E136F4AFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2021865072"/>
+        <c:axId val="2021867568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2021865072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021867568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2021867568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2021865072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>MySQL vs PostgreSQL Query Execution With NO Keys and 5 Threads</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$Q$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average PostgreSQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$P$5:$P$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$Q$5:$Q$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>258.5770183008392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.81490915017321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243.05643877239564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>355.89094934470438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.18172677381899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.86260132221719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.3016311645986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>285.87307698277539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.67248694164562</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.898578356080634</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>138.28250785730819</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.3582258066413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.302870670002321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>174.21016514441419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.829705897046335</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>605.00173808276611</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.186240467879827</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.201604327675142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A98A-4C73-9B78-8AB4E3E70E24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Graphs!$R$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average MySQL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$P$5:$P$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$R$5:$R$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>432.44595639221143</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>272.53465920976879</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>342.15849962205618</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1835.4439761470239</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.42729716190564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2260.7636965906399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1944.9028407697479</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1436.3860562580239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>434.38044401757799</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.772452569608582</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>227.48778471978022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>302.53092187613936</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>164.53681454989839</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.5058530379100152</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.414828965375094</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1970.7947727259921</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>174.7671703070786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A98A-4C73-9B78-8AB4E3E70E24}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="2017793808"/>
+        <c:axId val="2017794640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2017793808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017794640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2017794640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2017793808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5271,6 +6567,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6133,6 +7509,1016 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -10433,16 +12819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>4760</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1102177</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>59189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>16328</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10469,16 +12855,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1102178</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>32656</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>4082</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10498,6 +12884,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2CC944-3813-FA16-58CA-88972830AD34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>483052</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1102178</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>13606</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B048E44-9801-5BC5-E532-074017D83B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10805,7 +13263,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5F3338-F5F4-46D3-A61E-670C9DC8D3B7}">
   <dimension ref="B8:Q96"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -12694,7 +15152,7 @@
         <v>31</v>
       </c>
       <c r="C62" s="14">
-        <f t="shared" ref="C62:G62" si="6">SUM(C40:C61)</f>
+        <f t="shared" ref="C62:H62" si="6">SUM(C40:C61)</f>
         <v>2158.8224141597739</v>
       </c>
       <c r="D62" s="14">
@@ -12714,7 +15172,7 @@
         <v>2210.4904024600924</v>
       </c>
       <c r="H62" s="14">
-        <f>SUM(H40:H61)</f>
+        <f t="shared" si="6"/>
         <v>2292.6856369972174</v>
       </c>
       <c r="I62" s="14">
@@ -12997,10 +15455,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739F7174-EA87-44DE-A404-B76B78C6C87E}">
-  <dimension ref="C5:K58"/>
+  <dimension ref="C5:K122"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37:J58"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J67" sqref="J67:J88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13014,6 +15472,8 @@
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="16" max="16" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
@@ -14530,10 +16990,1460 @@
         <v>0.23742242804119013</v>
       </c>
     </row>
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+    </row>
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D67" s="7">
+        <v>508.92304491996703</v>
+      </c>
+      <c r="E67" s="7">
+        <v>508.92304491996703</v>
+      </c>
+      <c r="F67" s="7">
+        <v>453.88947224616999</v>
+      </c>
+      <c r="G67" s="7">
+        <v>456.56802654266301</v>
+      </c>
+      <c r="H67" s="7">
+        <v>450.91597186985598</v>
+      </c>
+      <c r="I67" s="7">
+        <v>840.16404223441998</v>
+      </c>
+      <c r="J67" s="9">
+        <f>AVERAGE(D67:H67)</f>
+        <v>475.84391209972466</v>
+      </c>
+      <c r="K67" s="9">
+        <f>_xlfn.STDEV.P(D67:H67)</f>
+        <v>27.068126842006134</v>
+      </c>
+    </row>
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C68" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" s="7">
+        <v>0</v>
+      </c>
+      <c r="E68" s="7">
+        <v>0</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0</v>
+      </c>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
+      <c r="H68" s="7">
+        <v>0</v>
+      </c>
+      <c r="I68" s="7">
+        <v>0</v>
+      </c>
+      <c r="J68" s="9">
+        <f t="shared" ref="J68:J88" si="4">AVERAGE(D68:H68)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="9">
+        <f t="shared" ref="K68:K88" si="5">_xlfn.STDEV.P(D68:H68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D69" s="7">
+        <v>346.389854014251</v>
+      </c>
+      <c r="E69" s="7">
+        <v>336.09846782684298</v>
+      </c>
+      <c r="F69" s="7">
+        <v>284.52379441261201</v>
+      </c>
+      <c r="G69" s="7">
+        <v>302.76043772697398</v>
+      </c>
+      <c r="H69" s="7">
+        <v>295.01024519216003</v>
+      </c>
+      <c r="I69" s="7">
+        <v>499.81980609893799</v>
+      </c>
+      <c r="J69" s="9">
+        <f t="shared" si="4"/>
+        <v>312.956559834568</v>
+      </c>
+      <c r="K69" s="9">
+        <f t="shared" si="5"/>
+        <v>24.032421143303047</v>
+      </c>
+    </row>
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D70" s="7">
+        <v>417.87540934244402</v>
+      </c>
+      <c r="E70" s="7">
+        <v>424.325868844985</v>
+      </c>
+      <c r="F70" s="7">
+        <v>366.58966326713499</v>
+      </c>
+      <c r="G70" s="7">
+        <v>380.96764874458302</v>
+      </c>
+      <c r="H70" s="7">
+        <v>371.826258996033</v>
+      </c>
+      <c r="I70" s="7">
+        <v>671.03227686881996</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" si="4"/>
+        <v>392.31696983903601</v>
+      </c>
+      <c r="K70" s="9">
+        <f t="shared" si="5"/>
+        <v>24.03486662756233</v>
+      </c>
+    </row>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C71" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="7">
+        <v>844.62869644165005</v>
+      </c>
+      <c r="E71" s="7">
+        <v>844.62869644165005</v>
+      </c>
+      <c r="F71" s="7">
+        <v>787.42247200012196</v>
+      </c>
+      <c r="G71" s="7">
+        <v>1358.9010591506899</v>
+      </c>
+      <c r="H71" s="7">
+        <v>821.12312873999997</v>
+      </c>
+      <c r="I71" s="7">
+        <v>1326.64780521392</v>
+      </c>
+      <c r="J71" s="9">
+        <f t="shared" si="4"/>
+        <v>931.34081055482238</v>
+      </c>
+      <c r="K71" s="9">
+        <f t="shared" si="5"/>
+        <v>214.80510850735877</v>
+      </c>
+    </row>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C72" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="7">
+        <v>201.215191602706</v>
+      </c>
+      <c r="E72" s="7">
+        <v>201.215191602706</v>
+      </c>
+      <c r="F72" s="7">
+        <v>175.524937868118</v>
+      </c>
+      <c r="G72" s="7">
+        <v>179.47298622131299</v>
+      </c>
+      <c r="H72" s="7">
+        <v>172.84573606991501</v>
+      </c>
+      <c r="I72" s="7">
+        <v>285.99209547042801</v>
+      </c>
+      <c r="J72" s="9">
+        <f t="shared" si="4"/>
+        <v>186.05480867295162</v>
+      </c>
+      <c r="K72" s="9">
+        <f t="shared" si="5"/>
+        <v>12.556692129197483</v>
+      </c>
+    </row>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="7">
+        <v>2758.0152873420102</v>
+      </c>
+      <c r="E73" s="7">
+        <v>2768.31882095336</v>
+      </c>
+      <c r="F73" s="7">
+        <v>1109.2882776260301</v>
+      </c>
+      <c r="G73" s="7">
+        <v>859.48601269721905</v>
+      </c>
+      <c r="H73" s="7">
+        <v>856.75654618910801</v>
+      </c>
+      <c r="I73" s="7">
+        <v>3522.3778505325299</v>
+      </c>
+      <c r="J73" s="9">
+        <f t="shared" si="4"/>
+        <v>1670.3729889615454</v>
+      </c>
+      <c r="K73" s="9">
+        <f t="shared" si="5"/>
+        <v>896.97004149902091</v>
+      </c>
+    </row>
+    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C74" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="7">
+        <v>1440.2217933132299</v>
+      </c>
+      <c r="E74" s="7">
+        <v>1446.92443370819</v>
+      </c>
+      <c r="F74" s="7">
+        <v>2579.9018664360001</v>
+      </c>
+      <c r="G74" s="7">
+        <v>1055.85815620422</v>
+      </c>
+      <c r="H74" s="7">
+        <v>1050.6630398997299</v>
+      </c>
+      <c r="I74" s="7">
+        <v>826.55779552459705</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" si="4"/>
+        <v>1514.7138579122741</v>
+      </c>
+      <c r="K74" s="9">
+        <f t="shared" si="5"/>
+        <v>560.47509916373497</v>
+      </c>
+    </row>
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C75" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="7">
+        <v>878.43907022476196</v>
+      </c>
+      <c r="E75" s="7">
+        <v>878.43907022476196</v>
+      </c>
+      <c r="F75" s="7">
+        <v>1333.1498138904501</v>
+      </c>
+      <c r="G75" s="7">
+        <v>388.79024434089598</v>
+      </c>
+      <c r="H75" s="7">
+        <v>395.52546000902697</v>
+      </c>
+      <c r="I75" s="7">
+        <v>655.59544372558503</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" si="4"/>
+        <v>774.86873173797937</v>
+      </c>
+      <c r="K75" s="9">
+        <f t="shared" si="5"/>
+        <v>353.86136069221027</v>
+      </c>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C76" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="7">
+        <v>1183.28719628368</v>
+      </c>
+      <c r="E76" s="7">
+        <v>1172.82614636421</v>
+      </c>
+      <c r="F76" s="7">
+        <v>1358.69080638885</v>
+      </c>
+      <c r="G76" s="7">
+        <v>1111.42585325241</v>
+      </c>
+      <c r="H76" s="7">
+        <v>1119.1444698678899</v>
+      </c>
+      <c r="I76" s="7">
+        <v>884.07970309257496</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" si="4"/>
+        <v>1189.074894431408</v>
+      </c>
+      <c r="K76" s="9">
+        <f t="shared" si="5"/>
+        <v>89.427864481275435</v>
+      </c>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" s="7">
+        <v>72.065041847663196</v>
+      </c>
+      <c r="E77" s="7">
+        <v>62.517236948013299</v>
+      </c>
+      <c r="F77" s="7">
+        <v>64.375853538513098</v>
+      </c>
+      <c r="G77" s="7">
+        <v>65.400436639785696</v>
+      </c>
+      <c r="H77" s="7">
+        <v>58.389495965161501</v>
+      </c>
+      <c r="I77" s="7">
+        <v>92.098354578018103</v>
+      </c>
+      <c r="J77" s="9">
+        <f t="shared" si="4"/>
+        <v>64.549612987827373</v>
+      </c>
+      <c r="K77" s="9">
+        <f t="shared" si="5"/>
+        <v>4.456755732152236</v>
+      </c>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D78" s="7">
+        <v>272.03322845997297</v>
+      </c>
+      <c r="E78" s="7">
+        <v>262.89595603942797</v>
+      </c>
+      <c r="F78" s="7">
+        <v>242.72655510902399</v>
+      </c>
+      <c r="G78" s="7">
+        <v>250.54999923706001</v>
+      </c>
+      <c r="H78" s="7">
+        <v>258.16053868020799</v>
+      </c>
+      <c r="I78" s="7">
+        <v>343.58711957931502</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" si="4"/>
+        <v>257.27325550513859</v>
+      </c>
+      <c r="K78" s="9">
+        <f t="shared" si="5"/>
+        <v>10.070427017947951</v>
+      </c>
+    </row>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C79" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D79" s="7">
+        <v>710.40446739479103</v>
+      </c>
+      <c r="E79" s="7">
+        <v>702.474330425262</v>
+      </c>
+      <c r="F79" s="7">
+        <v>772.932237148284</v>
+      </c>
+      <c r="G79" s="7">
+        <v>477.607212305068</v>
+      </c>
+      <c r="H79" s="7">
+        <v>481.96630189793802</v>
+      </c>
+      <c r="I79" s="7">
+        <v>479.81042528152398</v>
+      </c>
+      <c r="J79" s="9">
+        <f t="shared" si="4"/>
+        <v>629.07690983426869</v>
+      </c>
+      <c r="K79" s="9">
+        <f t="shared" si="5"/>
+        <v>124.32241020972684</v>
+      </c>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C80" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" s="7">
+        <v>188.51369452527899</v>
+      </c>
+      <c r="E80" s="7">
+        <v>180.824531078338</v>
+      </c>
+      <c r="F80" s="7">
+        <v>182.95208644866901</v>
+      </c>
+      <c r="G80" s="7">
+        <v>180.47274017333899</v>
+      </c>
+      <c r="H80" s="7">
+        <v>171.874304614198</v>
+      </c>
+      <c r="I80" s="7">
+        <v>247.88090634346</v>
+      </c>
+      <c r="J80" s="9">
+        <f t="shared" si="4"/>
+        <v>180.92747136796459</v>
+      </c>
+      <c r="K80" s="9">
+        <f t="shared" si="5"/>
+        <v>5.3633395091433069</v>
+      </c>
+    </row>
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C81" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="7">
+        <v>9.7689252167968696</v>
+      </c>
+      <c r="E81" s="7">
+        <v>0.128311157226562</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.27304863929748502</v>
+      </c>
+      <c r="G81" s="7">
+        <v>1.21159553527832E-2</v>
+      </c>
+      <c r="H81" s="34">
+        <v>4.2688082064809996E-3</v>
+      </c>
+      <c r="I81" s="7">
+        <v>4.7004938125610303E-2</v>
+      </c>
+      <c r="J81" s="9">
+        <f t="shared" si="4"/>
+        <v>2.0373339553760363</v>
+      </c>
+      <c r="K81" s="9">
+        <f t="shared" si="5"/>
+        <v>3.8670256268692498</v>
+      </c>
+    </row>
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C82" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="7">
+        <v>45.553575622558498</v>
+      </c>
+      <c r="E82" s="7">
+        <v>45.862018585205</v>
+      </c>
+      <c r="F82" s="7">
+        <v>64.523562669754</v>
+      </c>
+      <c r="G82" s="7">
+        <v>57.373973131179802</v>
+      </c>
+      <c r="H82" s="7">
+        <v>50.133496832080802</v>
+      </c>
+      <c r="I82" s="7">
+        <v>63.137111663818303</v>
+      </c>
+      <c r="J82" s="9">
+        <f t="shared" si="4"/>
+        <v>52.689325368155622</v>
+      </c>
+      <c r="K82" s="9">
+        <f t="shared" si="5"/>
+        <v>7.2946336305571648</v>
+      </c>
+    </row>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C83" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="7">
+        <v>0</v>
+      </c>
+      <c r="E83" s="7">
+        <v>0</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0</v>
+      </c>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
+      <c r="H83" s="7">
+        <v>0</v>
+      </c>
+      <c r="I83" s="7">
+        <v>0</v>
+      </c>
+      <c r="J83" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K83" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C84" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="7">
+        <v>1779.23289513587</v>
+      </c>
+      <c r="E84" s="7">
+        <v>1779.23289513587</v>
+      </c>
+      <c r="F84" s="7">
+        <v>1764.8789210319501</v>
+      </c>
+      <c r="G84" s="7">
+        <v>1787.2708716392499</v>
+      </c>
+      <c r="H84" s="7">
+        <v>1779.3607648634199</v>
+      </c>
+      <c r="I84" s="7">
+        <v>2113.1060261726302</v>
+      </c>
+      <c r="J84" s="9">
+        <f t="shared" si="4"/>
+        <v>1777.9952695612719</v>
+      </c>
+      <c r="K84" s="9">
+        <f t="shared" si="5"/>
+        <v>7.2526326833449781</v>
+      </c>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="7">
+        <v>0</v>
+      </c>
+      <c r="E85" s="7">
+        <v>0</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
+      <c r="H85" s="7">
+        <v>0</v>
+      </c>
+      <c r="I85" s="7">
+        <v>0</v>
+      </c>
+      <c r="J85" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K85" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C86" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="7">
+        <v>0</v>
+      </c>
+      <c r="E86" s="7">
+        <v>0</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
+      <c r="H86" s="7">
+        <v>0</v>
+      </c>
+      <c r="I86" s="7">
+        <v>0</v>
+      </c>
+      <c r="J86" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K86" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C87" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C88" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D88" s="7">
+        <v>143.374972469753</v>
+      </c>
+      <c r="E88" s="7">
+        <v>153.298210859298</v>
+      </c>
+      <c r="F88" s="7">
+        <v>150.33355116844101</v>
+      </c>
+      <c r="G88" s="7">
+        <v>145.67846727371199</v>
+      </c>
+      <c r="H88" s="7">
+        <v>138.40151618480499</v>
+      </c>
+      <c r="I88" s="7">
+        <v>202.48319029807999</v>
+      </c>
+      <c r="J88" s="9">
+        <f t="shared" si="4"/>
+        <v>146.2173435912018</v>
+      </c>
+      <c r="K88" s="9">
+        <f t="shared" si="5"/>
+        <v>5.2256763277397598</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="24"/>
+      <c r="J99" s="25"/>
+      <c r="K99" s="25"/>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C100" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J100" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K100" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D101" s="19">
+        <v>432.32716512680003</v>
+      </c>
+      <c r="E101" s="19">
+        <v>431.85976362228303</v>
+      </c>
+      <c r="F101" s="19">
+        <v>431.829649004396</v>
+      </c>
+      <c r="G101" s="19">
+        <v>436.11613123028098</v>
+      </c>
+      <c r="H101" s="19">
+        <v>430.09707297729699</v>
+      </c>
+      <c r="I101" s="19">
+        <v>508.83069038391102</v>
+      </c>
+      <c r="J101" s="9">
+        <f>AVERAGE(D101:H101)</f>
+        <v>432.44595639221143</v>
+      </c>
+      <c r="K101" s="9">
+        <f>_xlfn.STDEV.P(D101:H101)</f>
+        <v>1.9862026464280658</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="19">
+        <v>0</v>
+      </c>
+      <c r="E102" s="19">
+        <v>0</v>
+      </c>
+      <c r="F102" s="19">
+        <v>0</v>
+      </c>
+      <c r="G102" s="19">
+        <v>0</v>
+      </c>
+      <c r="H102" s="19">
+        <v>0</v>
+      </c>
+      <c r="I102" s="19">
+        <v>0</v>
+      </c>
+      <c r="J102" s="9">
+        <f t="shared" ref="J102:J122" si="6">AVERAGE(D102:H102)</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="9">
+        <f t="shared" ref="K102:K122" si="7">_xlfn.STDEV.P(D102:H102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C103" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D103" s="19">
+        <v>263.31871056556702</v>
+      </c>
+      <c r="E103" s="19">
+        <v>297.86512398719702</v>
+      </c>
+      <c r="F103" s="19">
+        <v>274.99161544864</v>
+      </c>
+      <c r="G103" s="19">
+        <v>260.98705127279101</v>
+      </c>
+      <c r="H103" s="19">
+        <v>265.51079477464901</v>
+      </c>
+      <c r="I103" s="19">
+        <v>313.72868418693503</v>
+      </c>
+      <c r="J103" s="9">
+        <f t="shared" si="6"/>
+        <v>272.53465920976879</v>
+      </c>
+      <c r="K103" s="9">
+        <f t="shared" si="7"/>
+        <v>13.529853730783035</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C104" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="19">
+        <v>332.42586040496798</v>
+      </c>
+      <c r="E104" s="19">
+        <v>391.17518138885498</v>
+      </c>
+      <c r="F104" s="19">
+        <v>330.59957041451798</v>
+      </c>
+      <c r="G104" s="19">
+        <v>322.71593809816397</v>
+      </c>
+      <c r="H104" s="19">
+        <v>333.875947803776</v>
+      </c>
+      <c r="I104" s="19">
+        <v>375.81531429290698</v>
+      </c>
+      <c r="J104" s="9">
+        <f t="shared" si="6"/>
+        <v>342.15849962205618</v>
+      </c>
+      <c r="K104" s="9">
+        <f t="shared" si="7"/>
+        <v>24.809603242354921</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="19">
+        <v>1778.6833720207201</v>
+      </c>
+      <c r="E105" s="19">
+        <v>2042.87998032569</v>
+      </c>
+      <c r="F105" s="19">
+        <v>1789.0416882694001</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1782.2167140036399</v>
+      </c>
+      <c r="H105" s="19">
+        <v>1784.39812611567</v>
+      </c>
+      <c r="I105" s="19">
+        <v>1964.1741814613299</v>
+      </c>
+      <c r="J105" s="9">
+        <f t="shared" si="6"/>
+        <v>1835.4439761470239</v>
+      </c>
+      <c r="K105" s="9">
+        <f t="shared" si="7"/>
+        <v>103.77230321369611</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="19">
+        <v>152.568726062774</v>
+      </c>
+      <c r="E106" s="19">
+        <v>182.74906253814601</v>
+      </c>
+      <c r="F106" s="19">
+        <v>146.761847107389</v>
+      </c>
+      <c r="G106" s="19">
+        <v>160.876902444731</v>
+      </c>
+      <c r="H106" s="19">
+        <v>144.179947656488</v>
+      </c>
+      <c r="I106" s="19">
+        <v>174.58044767379701</v>
+      </c>
+      <c r="J106" s="9">
+        <f t="shared" si="6"/>
+        <v>157.42729716190564</v>
+      </c>
+      <c r="K106" s="9">
+        <f t="shared" si="7"/>
+        <v>13.899218577215464</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="19">
+        <v>2211.5922148227601</v>
+      </c>
+      <c r="E107" s="19">
+        <v>2469.0194284915901</v>
+      </c>
+      <c r="F107" s="19">
+        <v>2214.30312684208</v>
+      </c>
+      <c r="G107" s="19">
+        <v>2203.1696174971498</v>
+      </c>
+      <c r="H107" s="19">
+        <v>2205.7340952996201</v>
+      </c>
+      <c r="I107" s="19">
+        <v>2604.2548162937101</v>
+      </c>
+      <c r="J107" s="9">
+        <f t="shared" si="6"/>
+        <v>2260.7636965906399</v>
+      </c>
+      <c r="K107" s="9">
+        <f t="shared" si="7"/>
+        <v>104.20384253479907</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="19">
+        <v>1854.8616378307299</v>
+      </c>
+      <c r="E108" s="19">
+        <v>2307.9108774662</v>
+      </c>
+      <c r="F108" s="19">
+        <v>1859.4252413504701</v>
+      </c>
+      <c r="G108" s="19">
+        <v>1853.4585121452701</v>
+      </c>
+      <c r="H108" s="19">
+        <v>1848.8579350560699</v>
+      </c>
+      <c r="I108" s="19">
+        <v>2200.5148265361699</v>
+      </c>
+      <c r="J108" s="9">
+        <f t="shared" si="6"/>
+        <v>1944.9028407697479</v>
+      </c>
+      <c r="K108" s="9">
+        <f t="shared" si="7"/>
+        <v>181.53532002700268</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="19">
+        <v>1340.7168457508001</v>
+      </c>
+      <c r="E109" s="19">
+        <v>1820.64506697654</v>
+      </c>
+      <c r="F109" s="19">
+        <v>1338.0696195271</v>
+      </c>
+      <c r="G109" s="19">
+        <v>1344.1367489356101</v>
+      </c>
+      <c r="H109" s="19">
+        <v>1338.36200010007</v>
+      </c>
+      <c r="I109" s="19">
+        <v>1621.75798749923</v>
+      </c>
+      <c r="J109" s="9">
+        <f t="shared" si="6"/>
+        <v>1436.3860562580239</v>
+      </c>
+      <c r="K109" s="9">
+        <f t="shared" si="7"/>
+        <v>192.14180033300258</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D110" s="19">
+        <v>434.85484194755497</v>
+      </c>
+      <c r="E110" s="19">
+        <v>431.08020067214898</v>
+      </c>
+      <c r="F110" s="19">
+        <v>443.43703151472198</v>
+      </c>
+      <c r="G110" s="19">
+        <v>432.44404195020502</v>
+      </c>
+      <c r="H110" s="19">
+        <v>430.08610400325898</v>
+      </c>
+      <c r="I110" s="19">
+        <v>405.86471891403198</v>
+      </c>
+      <c r="J110" s="9">
+        <f t="shared" si="6"/>
+        <v>434.38044401757799</v>
+      </c>
+      <c r="K110" s="9">
+        <f t="shared" si="7"/>
+        <v>4.8026960293890655</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C111" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" s="19">
+        <v>52.531518697738598</v>
+      </c>
+      <c r="E111" s="19">
+        <v>55.273355484008697</v>
+      </c>
+      <c r="F111" s="19">
+        <v>60.287590838445198</v>
+      </c>
+      <c r="G111" s="19">
+        <v>58.895432213833601</v>
+      </c>
+      <c r="H111" s="19">
+        <v>51.874365614016803</v>
+      </c>
+      <c r="I111" s="19">
+        <v>48.127749204635599</v>
+      </c>
+      <c r="J111" s="9">
+        <f t="shared" si="6"/>
+        <v>55.772452569608582</v>
+      </c>
+      <c r="K111" s="9">
+        <f t="shared" si="7"/>
+        <v>3.349247904261492</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D112" s="19">
+        <v>222.217710256576</v>
+      </c>
+      <c r="E112" s="19">
+        <v>267.77589058875998</v>
+      </c>
+      <c r="F112" s="19">
+        <v>213.88839806294001</v>
+      </c>
+      <c r="G112" s="19">
+        <v>211.01398930564599</v>
+      </c>
+      <c r="H112" s="19">
+        <v>222.54293538497899</v>
+      </c>
+      <c r="I112" s="19">
+        <v>204.221794128417</v>
+      </c>
+      <c r="J112" s="9">
+        <f t="shared" si="6"/>
+        <v>227.48778471978022</v>
+      </c>
+      <c r="K112" s="9">
+        <f t="shared" si="7"/>
+        <v>20.647934265154547</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C113" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D113" s="19">
+        <v>275.97212815284701</v>
+      </c>
+      <c r="E113" s="19">
+        <v>409.34239530563298</v>
+      </c>
+      <c r="F113" s="19">
+        <v>275.822865047341</v>
+      </c>
+      <c r="G113" s="19">
+        <v>272.31866027465799</v>
+      </c>
+      <c r="H113" s="19">
+        <v>279.198560600218</v>
+      </c>
+      <c r="I113" s="19">
+        <v>258.031348466873</v>
+      </c>
+      <c r="J113" s="9">
+        <f t="shared" si="6"/>
+        <v>302.53092187613936</v>
+      </c>
+      <c r="K113" s="9">
+        <f t="shared" si="7"/>
+        <v>53.450089828872457</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C114" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" s="19">
+        <v>158.37116050720201</v>
+      </c>
+      <c r="E114" s="19">
+        <v>180.511408090591</v>
+      </c>
+      <c r="F114" s="19">
+        <v>158.19407073696101</v>
+      </c>
+      <c r="G114" s="19">
+        <v>161.279093237767</v>
+      </c>
+      <c r="H114" s="19">
+        <v>164.32834017697101</v>
+      </c>
+      <c r="I114" s="19">
+        <v>161.46751713752701</v>
+      </c>
+      <c r="J114" s="9">
+        <f t="shared" si="6"/>
+        <v>164.53681454989839</v>
+      </c>
+      <c r="K114" s="9">
+        <f t="shared" si="7"/>
+        <v>8.2956559397409251</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C115" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D115" s="19">
+        <v>1.4033794403076101E-2</v>
+      </c>
+      <c r="E115" s="19">
+        <v>3.8739204406738198E-2</v>
+      </c>
+      <c r="F115" s="19">
+        <v>8.6568883157545304</v>
+      </c>
+      <c r="G115" s="19">
+        <v>2.57268948621472</v>
+      </c>
+      <c r="H115" s="19">
+        <v>1.2469143887710099</v>
+      </c>
+      <c r="I115" s="19">
+        <v>5.5614233016967697E-2</v>
+      </c>
+      <c r="J115" s="9">
+        <f t="shared" si="6"/>
+        <v>2.5058530379100152</v>
+      </c>
+      <c r="K115" s="9">
+        <f t="shared" si="7"/>
+        <v>3.2162227047323824</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C116" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D116" s="19">
+        <v>39.7727401256561</v>
+      </c>
+      <c r="E116" s="19">
+        <v>42.259039402008</v>
+      </c>
+      <c r="F116" s="19">
+        <v>31.930499520786601</v>
+      </c>
+      <c r="G116" s="19">
+        <v>33.597175210165197</v>
+      </c>
+      <c r="H116" s="19">
+        <v>34.514690568259603</v>
+      </c>
+      <c r="I116" s="19">
+        <v>36.185141086578298</v>
+      </c>
+      <c r="J116" s="9">
+        <f t="shared" si="6"/>
+        <v>36.414828965375094</v>
+      </c>
+      <c r="K116" s="9">
+        <f t="shared" si="7"/>
+        <v>3.9265575805795647</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C117" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" s="19">
+        <v>0</v>
+      </c>
+      <c r="E117" s="19">
+        <v>0</v>
+      </c>
+      <c r="F117" s="19">
+        <v>0</v>
+      </c>
+      <c r="G117" s="19">
+        <v>0</v>
+      </c>
+      <c r="H117" s="19">
+        <v>0</v>
+      </c>
+      <c r="I117" s="19">
+        <v>0</v>
+      </c>
+      <c r="J117" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C118" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="19">
+        <v>1997.8295779228199</v>
+      </c>
+      <c r="E118" s="19">
+        <v>1852.8383839130399</v>
+      </c>
+      <c r="F118" s="19">
+        <v>2007.3504376235901</v>
+      </c>
+      <c r="G118" s="19">
+        <v>1994.42044691816</v>
+      </c>
+      <c r="H118" s="19">
+        <v>2001.5350172523499</v>
+      </c>
+      <c r="I118" s="19">
+        <v>1689.7225167751301</v>
+      </c>
+      <c r="J118" s="9">
+        <f t="shared" si="6"/>
+        <v>1970.7947727259921</v>
+      </c>
+      <c r="K118" s="9">
+        <f t="shared" si="7"/>
+        <v>59.133817912431454</v>
+      </c>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C119" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="19">
+        <v>0</v>
+      </c>
+      <c r="E119" s="19">
+        <v>0</v>
+      </c>
+      <c r="F119" s="19">
+        <v>0</v>
+      </c>
+      <c r="G119" s="19">
+        <v>0</v>
+      </c>
+      <c r="H119" s="19">
+        <v>0</v>
+      </c>
+      <c r="I119" s="19">
+        <v>0</v>
+      </c>
+      <c r="J119" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K119" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C120" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D120" s="19">
+        <v>0</v>
+      </c>
+      <c r="E120" s="19">
+        <v>0</v>
+      </c>
+      <c r="F120" s="19">
+        <v>0</v>
+      </c>
+      <c r="G120" s="19">
+        <v>0</v>
+      </c>
+      <c r="H120" s="19">
+        <v>0</v>
+      </c>
+      <c r="I120" s="19">
+        <v>0</v>
+      </c>
+      <c r="J120" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K120" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C121" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" s="19">
+        <v>0</v>
+      </c>
+      <c r="E121" s="19">
+        <v>0</v>
+      </c>
+      <c r="F121" s="19">
+        <v>0</v>
+      </c>
+      <c r="G121" s="19">
+        <v>0</v>
+      </c>
+      <c r="H121" s="19">
+        <v>0</v>
+      </c>
+      <c r="I121" s="19">
+        <v>0</v>
+      </c>
+      <c r="J121" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K121" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C122" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" s="19">
+        <v>187.28061938285799</v>
+      </c>
+      <c r="E122" s="19">
+        <v>138.788492441177</v>
+      </c>
+      <c r="F122" s="19">
+        <v>179.40088416634001</v>
+      </c>
+      <c r="G122" s="19">
+        <v>180.20049633061001</v>
+      </c>
+      <c r="H122" s="19">
+        <v>188.165359214408</v>
+      </c>
+      <c r="I122" s="19">
+        <v>138.46750187873801</v>
+      </c>
+      <c r="J122" s="9">
+        <f t="shared" si="6"/>
+        <v>174.7671703070786</v>
+      </c>
+      <c r="K122" s="9">
+        <f t="shared" si="7"/>
+        <v>18.33878660410463</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C65:K65"/>
+    <mergeCell ref="C99:K99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14542,10 +18452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F367539-F476-4269-9596-D1A2C0F3D96F}">
-  <dimension ref="C5:K58"/>
+  <dimension ref="C5:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="J97" sqref="J97:J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14559,11 +18469,12 @@
     <col min="9" max="9" width="15.28515625" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" s="26" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="26"/>
@@ -15349,7 +19260,7 @@
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" s="24" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="D35" s="24"/>
       <c r="E35" s="24"/>
@@ -16071,10 +19982,1529 @@
         <v>16.527234032580594</v>
       </c>
     </row>
+    <row r="66" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C66" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="27"/>
+    </row>
+    <row r="67" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C67" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N67" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C68" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D68" s="7">
+        <v>116.809994126842</v>
+      </c>
+      <c r="E68" s="7">
+        <v>120.05912661552399</v>
+      </c>
+      <c r="F68" s="7">
+        <v>117.867416143417</v>
+      </c>
+      <c r="G68" s="7">
+        <v>114.402244364701</v>
+      </c>
+      <c r="H68" s="7">
+        <v>115.69900858902</v>
+      </c>
+      <c r="I68" s="7">
+        <v>122.743804454803</v>
+      </c>
+      <c r="J68" s="9">
+        <f>AVERAGE(D68:H68)</f>
+        <v>116.9675579679008</v>
+      </c>
+      <c r="K68" s="9">
+        <f>_xlfn.STDEV.P(D68:H68)</f>
+        <v>1.9278184153306577</v>
+      </c>
+      <c r="N68" s="7">
+        <v>53.8685944080352</v>
+      </c>
+    </row>
+    <row r="69" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C69" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="7">
+        <v>0</v>
+      </c>
+      <c r="E69" s="7">
+        <v>0</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0</v>
+      </c>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
+      <c r="H69" s="7">
+        <v>0</v>
+      </c>
+      <c r="I69" s="7">
+        <v>0</v>
+      </c>
+      <c r="J69" s="9">
+        <f t="shared" ref="J69:J89" si="4">AVERAGE(D69:H69)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="9">
+        <f t="shared" ref="K69:K89" si="5">_xlfn.STDEV.P(D69:H69)</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C70" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="7">
+        <v>53.416743738622003</v>
+      </c>
+      <c r="E70" s="7">
+        <v>54.939585685729902</v>
+      </c>
+      <c r="F70" s="7">
+        <v>53.004204750061</v>
+      </c>
+      <c r="G70" s="7">
+        <v>49.268127553878401</v>
+      </c>
+      <c r="H70" s="7">
+        <v>52.343002129262501</v>
+      </c>
+      <c r="I70" s="7">
+        <v>51.835447311401303</v>
+      </c>
+      <c r="J70" s="9">
+        <f t="shared" si="4"/>
+        <v>52.594332771510764</v>
+      </c>
+      <c r="K70" s="9">
+        <f t="shared" si="5"/>
+        <v>1.8692979597066153</v>
+      </c>
+      <c r="N70" s="7">
+        <v>30.5413978099823</v>
+      </c>
+    </row>
+    <row r="71" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C71" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="7">
+        <v>103.283687724865</v>
+      </c>
+      <c r="E71" s="7">
+        <v>109.04019665718</v>
+      </c>
+      <c r="F71" s="7">
+        <v>100.24883580207801</v>
+      </c>
+      <c r="G71" s="7">
+        <v>98.646381193838806</v>
+      </c>
+      <c r="H71" s="7">
+        <v>102.50633537742</v>
+      </c>
+      <c r="I71" s="7">
+        <v>101.362434864044</v>
+      </c>
+      <c r="J71" s="9">
+        <f t="shared" si="4"/>
+        <v>102.74508735107636</v>
+      </c>
+      <c r="K71" s="9">
+        <f t="shared" si="5"/>
+        <v>3.5498213476910783</v>
+      </c>
+      <c r="N71" s="7">
+        <v>45.762243032455402</v>
+      </c>
+    </row>
+    <row r="72" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C72" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="7">
+        <v>71.686119158118302</v>
+      </c>
+      <c r="E72" s="7">
+        <v>74.191416025161701</v>
+      </c>
+      <c r="F72" s="7">
+        <v>74.532156705856295</v>
+      </c>
+      <c r="G72" s="7">
+        <v>72.455727291826705</v>
+      </c>
+      <c r="H72" s="7">
+        <v>75.218438241098397</v>
+      </c>
+      <c r="I72" s="7">
+        <v>69.951157331466604</v>
+      </c>
+      <c r="J72" s="9">
+        <f t="shared" si="4"/>
+        <v>73.616771484412283</v>
+      </c>
+      <c r="K72" s="9">
+        <f t="shared" si="5"/>
+        <v>1.3273224833088366</v>
+      </c>
+      <c r="N72" s="7">
+        <v>30.411696195602399</v>
+      </c>
+    </row>
+    <row r="73" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C73" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="7">
+        <v>34.570111320978498</v>
+      </c>
+      <c r="E73" s="7">
+        <v>34.936352729797299</v>
+      </c>
+      <c r="F73" s="7">
+        <v>34.442024707794097</v>
+      </c>
+      <c r="G73" s="7">
+        <v>30.419166788577499</v>
+      </c>
+      <c r="H73" s="7">
+        <v>35.197084224874402</v>
+      </c>
+      <c r="I73" s="7">
+        <v>33.704381704330402</v>
+      </c>
+      <c r="J73" s="9">
+        <f t="shared" si="4"/>
+        <v>33.912947954404366</v>
+      </c>
+      <c r="K73" s="9">
+        <f t="shared" si="5"/>
+        <v>1.7671817128673983</v>
+      </c>
+      <c r="N73" s="7">
+        <v>16.491714239120402</v>
+      </c>
+    </row>
+    <row r="74" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C74" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="7">
+        <v>46.932976606464202</v>
+      </c>
+      <c r="E74" s="7">
+        <v>45.136652708053496</v>
+      </c>
+      <c r="F74" s="7">
+        <v>45.109026432037297</v>
+      </c>
+      <c r="G74" s="7">
+        <v>46.267319295349097</v>
+      </c>
+      <c r="H74" s="7">
+        <v>45.395366026964602</v>
+      </c>
+      <c r="I74" s="7">
+        <v>45.002852916717501</v>
+      </c>
+      <c r="J74" s="9">
+        <f t="shared" si="4"/>
+        <v>45.768268213773737</v>
+      </c>
+      <c r="K74" s="9">
+        <f t="shared" si="5"/>
+        <v>0.71807959681437106</v>
+      </c>
+      <c r="N74" s="7">
+        <v>25.362547874450598</v>
+      </c>
+    </row>
+    <row r="75" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C75" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="7">
+        <v>81.315712313033004</v>
+      </c>
+      <c r="E75" s="7">
+        <v>82.221411705017005</v>
+      </c>
+      <c r="F75" s="7">
+        <v>81.504769563674898</v>
+      </c>
+      <c r="G75" s="7">
+        <v>77.597423716365995</v>
+      </c>
+      <c r="H75" s="7">
+        <v>82.130079047442194</v>
+      </c>
+      <c r="I75" s="7">
+        <v>80.976276874542194</v>
+      </c>
+      <c r="J75" s="9">
+        <f t="shared" si="4"/>
+        <v>80.953879269106622</v>
+      </c>
+      <c r="K75" s="9">
+        <f t="shared" si="5"/>
+        <v>1.7140759341692828</v>
+      </c>
+      <c r="N75" s="7">
+        <v>24.916943550109799</v>
+      </c>
+    </row>
+    <row r="76" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C76" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="7">
+        <v>153.12703614888599</v>
+      </c>
+      <c r="E76" s="7">
+        <v>167.03943943977299</v>
+      </c>
+      <c r="F76" s="7">
+        <v>152.053899049758</v>
+      </c>
+      <c r="G76" s="7">
+        <v>148.13301004289499</v>
+      </c>
+      <c r="H76" s="7">
+        <v>150.70116443494399</v>
+      </c>
+      <c r="I76" s="7">
+        <v>145.06279492378201</v>
+      </c>
+      <c r="J76" s="9">
+        <f t="shared" si="4"/>
+        <v>154.21090982325117</v>
+      </c>
+      <c r="K76" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6280891389860184</v>
+      </c>
+      <c r="N76" s="7">
+        <v>92.889430284500094</v>
+      </c>
+    </row>
+    <row r="77" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C77" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="7">
+        <v>56.066710999055402</v>
+      </c>
+      <c r="E77" s="7">
+        <v>56.1399149894714</v>
+      </c>
+      <c r="F77" s="7">
+        <v>56.082179307937601</v>
+      </c>
+      <c r="G77" s="7">
+        <v>54.887643722372502</v>
+      </c>
+      <c r="H77" s="7">
+        <v>57.204200315389897</v>
+      </c>
+      <c r="I77" s="7">
+        <v>52.988723516464198</v>
+      </c>
+      <c r="J77" s="9">
+        <f t="shared" si="4"/>
+        <v>56.076129866845363</v>
+      </c>
+      <c r="K77" s="9">
+        <f t="shared" si="5"/>
+        <v>0.73338067947824004</v>
+      </c>
+      <c r="N77" s="7">
+        <v>34.600995540618896</v>
+      </c>
+    </row>
+    <row r="78" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C78" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" s="7">
+        <v>6.7876213414672701</v>
+      </c>
+      <c r="E78" s="7">
+        <v>6.34415555000305</v>
+      </c>
+      <c r="F78" s="7">
+        <v>6.4753959178924498</v>
+      </c>
+      <c r="G78" s="7">
+        <v>8.1880702741442306</v>
+      </c>
+      <c r="H78" s="7">
+        <v>3.69443854077447</v>
+      </c>
+      <c r="I78" s="7">
+        <v>6.21428942680358</v>
+      </c>
+      <c r="J78" s="9">
+        <f t="shared" si="4"/>
+        <v>6.2979363248562938</v>
+      </c>
+      <c r="K78" s="9">
+        <f t="shared" si="5"/>
+        <v>1.4576849177649345</v>
+      </c>
+      <c r="N78" s="7">
+        <v>5.7455492019653303</v>
+      </c>
+    </row>
+    <row r="79" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C79" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D79" s="7">
+        <v>47.920035595631497</v>
+      </c>
+      <c r="E79" s="7">
+        <v>46.8991763591766</v>
+      </c>
+      <c r="F79" s="7">
+        <v>49.353523492813103</v>
+      </c>
+      <c r="G79" s="7">
+        <v>45.760490218038697</v>
+      </c>
+      <c r="H79" s="7">
+        <v>47.668961273472803</v>
+      </c>
+      <c r="I79" s="7">
+        <v>47.716147184371899</v>
+      </c>
+      <c r="J79" s="9">
+        <f t="shared" si="4"/>
+        <v>47.52043738782654</v>
+      </c>
+      <c r="K79" s="9">
+        <f t="shared" si="5"/>
+        <v>1.1853541282457851</v>
+      </c>
+      <c r="N79" s="7">
+        <v>28.654867649078302</v>
+      </c>
+    </row>
+    <row r="80" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C80" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D80" s="7">
+        <v>25.1587696441144</v>
+      </c>
+      <c r="E80" s="7">
+        <v>22.042447805404599</v>
+      </c>
+      <c r="F80" s="7">
+        <v>24.458084106445298</v>
+      </c>
+      <c r="G80" s="7">
+        <v>24.365924220875101</v>
+      </c>
+      <c r="H80" s="7">
+        <v>24.2446012252027</v>
+      </c>
+      <c r="I80" s="7">
+        <v>22.578510761260901</v>
+      </c>
+      <c r="J80" s="9">
+        <f t="shared" si="4"/>
+        <v>24.053965400408423</v>
+      </c>
+      <c r="K80" s="9">
+        <f t="shared" si="5"/>
+        <v>1.0548713384912474</v>
+      </c>
+      <c r="N80" s="7">
+        <v>21.766171693801802</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C81" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="7">
+        <v>37.805974848988299</v>
+      </c>
+      <c r="E81" s="7">
+        <v>38.279174089431699</v>
+      </c>
+      <c r="F81" s="7">
+        <v>36.852117300033498</v>
+      </c>
+      <c r="G81" s="7">
+        <v>36.166812730988497</v>
+      </c>
+      <c r="H81" s="7">
+        <v>36.208201788056101</v>
+      </c>
+      <c r="I81" s="7">
+        <v>35.943768978118896</v>
+      </c>
+      <c r="J81" s="9">
+        <f t="shared" si="4"/>
+        <v>37.062456151499617</v>
+      </c>
+      <c r="K81" s="9">
+        <f t="shared" si="5"/>
+        <v>0.84963435436712376</v>
+      </c>
+      <c r="N81" s="7">
+        <v>19.6775302886962</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C82" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82" s="7">
+        <v>71.082092286837906</v>
+      </c>
+      <c r="E82" s="7">
+        <v>71.439253330230699</v>
+      </c>
+      <c r="F82" s="7">
+        <v>72.4492635726928</v>
+      </c>
+      <c r="G82" s="7">
+        <v>73.477029698943298</v>
+      </c>
+      <c r="H82" s="7">
+        <v>72.399815973317502</v>
+      </c>
+      <c r="I82" s="7">
+        <v>71.261718034744206</v>
+      </c>
+      <c r="J82" s="9">
+        <f t="shared" si="4"/>
+        <v>72.169490972404446</v>
+      </c>
+      <c r="K82" s="9">
+        <f t="shared" si="5"/>
+        <v>0.84340532968862147</v>
+      </c>
+      <c r="N82" s="7">
+        <v>37.851269006729098</v>
+      </c>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C83" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="7">
+        <v>11.125000282406999</v>
+      </c>
+      <c r="E83" s="7">
+        <v>10.810708761215199</v>
+      </c>
+      <c r="F83" s="7">
+        <v>12.3940339088439</v>
+      </c>
+      <c r="G83" s="7">
+        <v>11.271833207505701</v>
+      </c>
+      <c r="H83" s="7">
+        <v>13.119275836345601</v>
+      </c>
+      <c r="I83" s="7">
+        <v>12.0271742343902</v>
+      </c>
+      <c r="J83" s="9">
+        <f t="shared" si="4"/>
+        <v>11.74417039926348</v>
+      </c>
+      <c r="K83" s="9">
+        <f t="shared" si="5"/>
+        <v>0.87075395264224476</v>
+      </c>
+      <c r="N83" s="7">
+        <v>10.963798522949199</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C84" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="7">
+        <v>0</v>
+      </c>
+      <c r="E84" s="7">
+        <v>0</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0</v>
+      </c>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
+      <c r="H84" s="7">
+        <v>0</v>
+      </c>
+      <c r="I84" s="7">
+        <v>0</v>
+      </c>
+      <c r="J84" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K84" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C85" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="7">
+        <v>514.077593893055</v>
+      </c>
+      <c r="E85" s="7">
+        <v>516.85590505599896</v>
+      </c>
+      <c r="F85" s="7">
+        <v>511.762782096862</v>
+      </c>
+      <c r="G85" s="7">
+        <v>515.46037850984305</v>
+      </c>
+      <c r="H85" s="7">
+        <v>518.03546492768896</v>
+      </c>
+      <c r="I85" s="7">
+        <v>526.82423210143997</v>
+      </c>
+      <c r="J85" s="9">
+        <f t="shared" si="4"/>
+        <v>515.23842489668948</v>
+      </c>
+      <c r="K85" s="9">
+        <f t="shared" si="5"/>
+        <v>2.1870784118616782</v>
+      </c>
+      <c r="N85" s="7">
+        <v>156.916365385055</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="7">
+        <v>34.965751198624098</v>
+      </c>
+      <c r="E86" s="7">
+        <v>35.709312915802002</v>
+      </c>
+      <c r="F86" s="7">
+        <v>37.919752836227403</v>
+      </c>
+      <c r="G86" s="7">
+        <v>38.597853924138498</v>
+      </c>
+      <c r="H86" s="7">
+        <v>37.468973494932101</v>
+      </c>
+      <c r="I86" s="7">
+        <v>36.4179589748382</v>
+      </c>
+      <c r="J86" s="9">
+        <f t="shared" si="4"/>
+        <v>36.932328873944826</v>
+      </c>
+      <c r="K86" s="9">
+        <f t="shared" si="5"/>
+        <v>1.3711428087758708</v>
+      </c>
+      <c r="N86" s="7">
+        <v>18.793033838271999</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C87" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="7">
+        <v>0</v>
+      </c>
+      <c r="E87" s="7">
+        <v>0</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
+      <c r="H87" s="7">
+        <v>0</v>
+      </c>
+      <c r="I87" s="7">
+        <v>0</v>
+      </c>
+      <c r="J87" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K87" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N87" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C88" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88" s="7">
+        <v>0</v>
+      </c>
+      <c r="E88" s="7">
+        <v>0</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0</v>
+      </c>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
+      <c r="H88" s="7">
+        <v>0</v>
+      </c>
+      <c r="I88" s="7">
+        <v>0</v>
+      </c>
+      <c r="J88" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K88" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N88" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C89" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="7">
+        <v>13.401440298165999</v>
+      </c>
+      <c r="E89" s="7">
+        <v>12.8769564628601</v>
+      </c>
+      <c r="F89" s="7">
+        <v>12.8854360580444</v>
+      </c>
+      <c r="G89" s="7">
+        <v>12.389107110190199</v>
+      </c>
+      <c r="H89" s="7">
+        <v>13.1065818304478</v>
+      </c>
+      <c r="I89" s="7">
+        <v>12.5910084247589</v>
+      </c>
+      <c r="J89" s="9">
+        <f t="shared" si="4"/>
+        <v>12.9319043519417</v>
+      </c>
+      <c r="K89" s="9">
+        <f t="shared" si="5"/>
+        <v>0.33189867272988122</v>
+      </c>
+      <c r="N89" s="7">
+        <v>12.0864944458007</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C95" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D95" s="26"/>
+      <c r="E95" s="26"/>
+      <c r="F95" s="26"/>
+      <c r="G95" s="26"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="27"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C96" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J96" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K96" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C97" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D97" s="7">
+        <v>237.74508571624699</v>
+      </c>
+      <c r="E97" s="7">
+        <v>261.14087939262299</v>
+      </c>
+      <c r="F97" s="7">
+        <v>267.24727725982598</v>
+      </c>
+      <c r="G97" s="7">
+        <v>262.504571875674</v>
+      </c>
+      <c r="H97" s="7">
+        <v>264.24727725982598</v>
+      </c>
+      <c r="I97" s="7">
+        <v>271.61756277084299</v>
+      </c>
+      <c r="J97" s="9">
+        <f>AVERAGE(D97:H97)</f>
+        <v>258.5770183008392</v>
+      </c>
+      <c r="K97" s="9">
+        <f>_xlfn.STDEV.P(D97:H97)</f>
+        <v>10.614082184230677</v>
+      </c>
+    </row>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C98" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" s="7">
+        <v>0</v>
+      </c>
+      <c r="E98" s="7">
+        <v>0</v>
+      </c>
+      <c r="F98" s="7">
+        <v>0</v>
+      </c>
+      <c r="G98" s="7">
+        <v>0</v>
+      </c>
+      <c r="H98" s="7">
+        <v>0</v>
+      </c>
+      <c r="I98" s="7">
+        <v>0</v>
+      </c>
+      <c r="J98" s="9">
+        <f t="shared" ref="J98:J118" si="6">AVERAGE(D98:H98)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="9">
+        <f t="shared" ref="K98:K118" si="7">_xlfn.STDEV.P(D98:H98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D99" s="7">
+        <v>318.52594733238197</v>
+      </c>
+      <c r="E99" s="7">
+        <v>148.562724351882</v>
+      </c>
+      <c r="F99" s="7">
+        <v>142.55817770957901</v>
+      </c>
+      <c r="G99" s="7">
+        <v>144.86951864744401</v>
+      </c>
+      <c r="H99" s="7">
+        <v>144.55817770957901</v>
+      </c>
+      <c r="I99" s="7">
+        <v>138.653515577316</v>
+      </c>
+      <c r="J99" s="9">
+        <f t="shared" si="6"/>
+        <v>179.81490915017321</v>
+      </c>
+      <c r="K99" s="9">
+        <f t="shared" si="7"/>
+        <v>69.382609687372977</v>
+      </c>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C100" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D100" s="7">
+        <v>230.64803743362401</v>
+      </c>
+      <c r="E100" s="7">
+        <v>241.729189395904</v>
+      </c>
+      <c r="F100" s="7">
+        <v>246.74115014076199</v>
+      </c>
+      <c r="G100" s="7">
+        <v>250.422666750926</v>
+      </c>
+      <c r="H100" s="7">
+        <v>245.74115014076199</v>
+      </c>
+      <c r="I100" s="7">
+        <v>251.74094843864401</v>
+      </c>
+      <c r="J100" s="9">
+        <f t="shared" si="6"/>
+        <v>243.05643877239564</v>
+      </c>
+      <c r="K100" s="9">
+        <f t="shared" si="7"/>
+        <v>6.7937633506432089</v>
+      </c>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="7">
+        <v>226.35418200492799</v>
+      </c>
+      <c r="E101" s="7">
+        <v>415.45967626571598</v>
+      </c>
+      <c r="F101" s="7">
+        <v>381.722068548202</v>
+      </c>
+      <c r="G101" s="7">
+        <v>378.19675135647401</v>
+      </c>
+      <c r="H101" s="7">
+        <v>377.722068548202</v>
+      </c>
+      <c r="I101" s="7">
+        <v>384.96688246726899</v>
+      </c>
+      <c r="J101" s="9">
+        <f t="shared" si="6"/>
+        <v>355.89094934470438</v>
+      </c>
+      <c r="K101" s="9">
+        <f t="shared" si="7"/>
+        <v>66.286651157228178</v>
+      </c>
+    </row>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D102" s="7">
+        <v>87.820818901061998</v>
+      </c>
+      <c r="E102" s="7">
+        <v>115.377791166305</v>
+      </c>
+      <c r="F102" s="7">
+        <v>113.213619470596</v>
+      </c>
+      <c r="G102" s="7">
+        <v>112.282784860536</v>
+      </c>
+      <c r="H102" s="7">
+        <v>117.213619470596</v>
+      </c>
+      <c r="I102" s="7">
+        <v>105.08687424659701</v>
+      </c>
+      <c r="J102" s="9">
+        <f t="shared" si="6"/>
+        <v>109.18172677381899</v>
+      </c>
+      <c r="K102" s="9">
+        <f t="shared" si="7"/>
+        <v>10.817241971707034</v>
+      </c>
+    </row>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C103" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="7">
+        <v>113.17516779899501</v>
+      </c>
+      <c r="E103" s="7">
+        <v>172.604114770889</v>
+      </c>
+      <c r="F103" s="7">
+        <v>157.71517443656899</v>
+      </c>
+      <c r="G103" s="7">
+        <v>161.10337516806399</v>
+      </c>
+      <c r="H103" s="7">
+        <v>154.71517443656899</v>
+      </c>
+      <c r="I103" s="7">
+        <v>161.473184347152</v>
+      </c>
+      <c r="J103" s="9">
+        <f t="shared" si="6"/>
+        <v>151.86260132221719</v>
+      </c>
+      <c r="K103" s="9">
+        <f t="shared" si="7"/>
+        <v>20.271702343201504</v>
+      </c>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C104" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="7">
+        <v>176.64832425117399</v>
+      </c>
+      <c r="E104" s="7">
+        <v>180.68439149856499</v>
+      </c>
+      <c r="F104" s="7">
+        <v>176.225262880325</v>
+      </c>
+      <c r="G104" s="7">
+        <v>176.724914312604</v>
+      </c>
+      <c r="H104" s="7">
+        <v>171.225262880325</v>
+      </c>
+      <c r="I104" s="7">
+        <v>171.41627693176201</v>
+      </c>
+      <c r="J104" s="9">
+        <f t="shared" si="6"/>
+        <v>176.3016311645986</v>
+      </c>
+      <c r="K104" s="9">
+        <f t="shared" si="7"/>
+        <v>3.0094285150863929</v>
+      </c>
+    </row>
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D105" s="7">
+        <v>301.85558795928898</v>
+      </c>
+      <c r="E105" s="7">
+        <v>294.72466039657502</v>
+      </c>
+      <c r="F105" s="7">
+        <v>275.71197915077198</v>
+      </c>
+      <c r="G105" s="7">
+        <v>279.36117825646897</v>
+      </c>
+      <c r="H105" s="7">
+        <v>277.71197915077198</v>
+      </c>
+      <c r="I105" s="7">
+        <v>279.06467676162703</v>
+      </c>
+      <c r="J105" s="9">
+        <f t="shared" si="6"/>
+        <v>285.87307698277539</v>
+      </c>
+      <c r="K105" s="9">
+        <f t="shared" si="7"/>
+        <v>10.450334329987498</v>
+      </c>
+    </row>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="7">
+        <v>190.332304477691</v>
+      </c>
+      <c r="E106" s="7">
+        <v>146.10637569427399</v>
+      </c>
+      <c r="F106" s="7">
+        <v>133.18342757225</v>
+      </c>
+      <c r="G106" s="7">
+        <v>135.55689939176301</v>
+      </c>
+      <c r="H106" s="7">
+        <v>128.18342757225</v>
+      </c>
+      <c r="I106" s="7">
+        <v>183.629492998123</v>
+      </c>
+      <c r="J106" s="9">
+        <f t="shared" si="6"/>
+        <v>146.67248694164562</v>
+      </c>
+      <c r="K106" s="9">
+        <f t="shared" si="7"/>
+        <v>22.600249887292772</v>
+      </c>
+    </row>
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="7">
+        <v>51.668475627899099</v>
+      </c>
+      <c r="E107" s="7">
+        <v>39.647388935089097</v>
+      </c>
+      <c r="F107" s="7">
+        <v>33.702404975891099</v>
+      </c>
+      <c r="G107" s="7">
+        <v>30.772217265632801</v>
+      </c>
+      <c r="H107" s="7">
+        <v>38.702404975891099</v>
+      </c>
+      <c r="I107" s="7">
+        <v>29.842417240142801</v>
+      </c>
+      <c r="J107" s="9">
+        <f t="shared" si="6"/>
+        <v>38.898578356080634</v>
+      </c>
+      <c r="K107" s="9">
+        <f t="shared" si="7"/>
+        <v>7.1652974813396799</v>
+      </c>
+    </row>
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D108" s="7">
+        <v>122.544132232666</v>
+      </c>
+      <c r="E108" s="7">
+        <v>136.29849839210499</v>
+      </c>
+      <c r="F108" s="7">
+        <v>143.57153463363599</v>
+      </c>
+      <c r="G108" s="7">
+        <v>141.42683939449799</v>
+      </c>
+      <c r="H108" s="7">
+        <v>147.57153463363599</v>
+      </c>
+      <c r="I108" s="7">
+        <v>111.374079704284</v>
+      </c>
+      <c r="J108" s="9">
+        <f t="shared" si="6"/>
+        <v>138.28250785730819</v>
+      </c>
+      <c r="K108" s="9">
+        <f t="shared" si="7"/>
+        <v>8.6692491528178035</v>
+      </c>
+    </row>
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D109" s="7">
+        <v>111.324208974838</v>
+      </c>
+      <c r="E109" s="7">
+        <v>52.867796897888098</v>
+      </c>
+      <c r="F109" s="7">
+        <v>48.445927858352597</v>
+      </c>
+      <c r="G109" s="7">
+        <v>51.707267443775201</v>
+      </c>
+      <c r="H109" s="7">
+        <v>52.445927858352597</v>
+      </c>
+      <c r="I109" s="7">
+        <v>49.637761116027797</v>
+      </c>
+      <c r="J109" s="9">
+        <f t="shared" si="6"/>
+        <v>63.3582258066413</v>
+      </c>
+      <c r="K109" s="9">
+        <f t="shared" si="7"/>
+        <v>24.033245088274413</v>
+      </c>
+    </row>
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" s="7">
+        <v>89.509869337081895</v>
+      </c>
+      <c r="E110" s="7">
+        <v>83.716552972793494</v>
+      </c>
+      <c r="F110" s="7">
+        <v>86.911427497863698</v>
+      </c>
+      <c r="G110" s="7">
+        <v>89.465076044408804</v>
+      </c>
+      <c r="H110" s="7">
+        <v>81.911427497863698</v>
+      </c>
+      <c r="I110" s="7">
+        <v>84.067364931106496</v>
+      </c>
+      <c r="J110" s="9">
+        <f t="shared" si="6"/>
+        <v>86.302870670002321</v>
+      </c>
+      <c r="K110" s="9">
+        <f t="shared" si="7"/>
+        <v>3.053802123855788</v>
+      </c>
+    </row>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C111" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111" s="7">
+        <v>143.98718357086099</v>
+      </c>
+      <c r="E111" s="7">
+        <v>138.37164449691701</v>
+      </c>
+      <c r="F111" s="7">
+        <v>196.94850802421499</v>
+      </c>
+      <c r="G111" s="7">
+        <v>192.794981605863</v>
+      </c>
+      <c r="H111" s="7">
+        <v>198.94850802421499</v>
+      </c>
+      <c r="I111" s="7">
+        <v>215.961312055587</v>
+      </c>
+      <c r="J111" s="9">
+        <f t="shared" si="6"/>
+        <v>174.21016514441419</v>
+      </c>
+      <c r="K111" s="9">
+        <f t="shared" si="7"/>
+        <v>27.100706358543913</v>
+      </c>
+    </row>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D112" s="7">
+        <v>35.395351648330603</v>
+      </c>
+      <c r="E112" s="7">
+        <v>47.012186527252197</v>
+      </c>
+      <c r="F112" s="7">
+        <v>22.716572761535598</v>
+      </c>
+      <c r="G112" s="7">
+        <v>27.307845786577701</v>
+      </c>
+      <c r="H112" s="7">
+        <v>21.716572761535598</v>
+      </c>
+      <c r="I112" s="7">
+        <v>24.296156644821099</v>
+      </c>
+      <c r="J112" s="9">
+        <f t="shared" si="6"/>
+        <v>30.829705897046335</v>
+      </c>
+      <c r="K112" s="9">
+        <f t="shared" si="7"/>
+        <v>9.4233054066074455</v>
+      </c>
+    </row>
+    <row r="113" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C113" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" s="7">
+        <v>0</v>
+      </c>
+      <c r="E113" s="7">
+        <v>0</v>
+      </c>
+      <c r="F113" s="7">
+        <v>0</v>
+      </c>
+      <c r="G113" s="7">
+        <v>0</v>
+      </c>
+      <c r="H113" s="7">
+        <v>0</v>
+      </c>
+      <c r="I113" s="7">
+        <v>0</v>
+      </c>
+      <c r="J113" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K113" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C114" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="7">
+        <v>714.50491833686795</v>
+      </c>
+      <c r="E114" s="7">
+        <v>653.96892642974797</v>
+      </c>
+      <c r="F114" s="7">
+        <v>556.11027526855401</v>
+      </c>
+      <c r="G114" s="7">
+        <v>549.31429511010697</v>
+      </c>
+      <c r="H114" s="7">
+        <v>551.11027526855401</v>
+      </c>
+      <c r="I114" s="7">
+        <v>548.56212782859802</v>
+      </c>
+      <c r="J114" s="9">
+        <f t="shared" si="6"/>
+        <v>605.00173808276611</v>
+      </c>
+      <c r="K114" s="9">
+        <f t="shared" si="7"/>
+        <v>67.504797200752591</v>
+      </c>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D115" s="7">
+        <v>91.738849639892507</v>
+      </c>
+      <c r="E115" s="7">
+        <v>81.061907052993703</v>
+      </c>
+      <c r="F115" s="7">
+        <v>96.126861095428396</v>
+      </c>
+      <c r="G115" s="7">
+        <v>95.876723455656105</v>
+      </c>
+      <c r="H115" s="7">
+        <v>91.126861095428396</v>
+      </c>
+      <c r="I115" s="7">
+        <v>80.668989181518498</v>
+      </c>
+      <c r="J115" s="9">
+        <f t="shared" si="6"/>
+        <v>91.186240467879827</v>
+      </c>
+      <c r="K115" s="9">
+        <f t="shared" si="7"/>
+        <v>5.4629917215134434</v>
+      </c>
+    </row>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C116" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0</v>
+      </c>
+      <c r="E116" s="7">
+        <v>0</v>
+      </c>
+      <c r="F116" s="7">
+        <v>0</v>
+      </c>
+      <c r="G116" s="7">
+        <v>0</v>
+      </c>
+      <c r="H116" s="7">
+        <v>0</v>
+      </c>
+      <c r="I116" s="7">
+        <v>0</v>
+      </c>
+      <c r="J116" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K116" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C117" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0</v>
+      </c>
+      <c r="E117" s="7">
+        <v>0</v>
+      </c>
+      <c r="F117" s="7">
+        <v>0</v>
+      </c>
+      <c r="G117" s="7">
+        <v>0</v>
+      </c>
+      <c r="H117" s="7">
+        <v>0</v>
+      </c>
+      <c r="I117" s="7">
+        <v>0</v>
+      </c>
+      <c r="J117" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C118" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D118" s="7">
+        <v>47.100316524505601</v>
+      </c>
+      <c r="E118" s="7">
+        <v>39.947703361511202</v>
+      </c>
+      <c r="F118" s="7">
+        <v>45.1388871669769</v>
+      </c>
+      <c r="G118" s="7">
+        <v>44.682227418405098</v>
+      </c>
+      <c r="H118" s="7">
+        <v>44.1388871669769</v>
+      </c>
+      <c r="I118" s="7">
+        <v>42.957149267196598</v>
+      </c>
+      <c r="J118" s="9">
+        <f t="shared" si="6"/>
+        <v>44.201604327675142</v>
+      </c>
+      <c r="K118" s="9">
+        <f t="shared" si="7"/>
+        <v>2.3499632741139846</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="C5:K5"/>
     <mergeCell ref="C35:K35"/>
+    <mergeCell ref="C66:K66"/>
+    <mergeCell ref="C95:K95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16085,7 +21515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB0DE57-CC1C-42F4-9D16-9132C59C104F}">
   <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -16100,7 +21530,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -16110,21 +21540,21 @@
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C4" s="5">
         <v>1.6E-2</v>
@@ -16133,7 +21563,7 @@
         <v>7.6E-3</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F4" s="5">
         <v>5</v>
@@ -16141,7 +21571,7 @@
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -16150,7 +21580,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F5" s="5">
         <v>25</v>
@@ -16158,7 +21588,7 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C6" s="5">
         <v>4.609</v>
@@ -16167,7 +21597,7 @@
         <v>0.73299999999999998</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="18">
         <v>200000</v>
@@ -16175,7 +21605,7 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5">
         <v>62.11</v>
@@ -16184,7 +21614,7 @@
         <v>12.919</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F7" s="18">
         <v>4000000</v>
@@ -16192,7 +21622,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5">
         <v>54.390999999999998</v>
@@ -16201,7 +21631,7 @@
         <v>10.794</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F8" s="18">
         <v>3000000</v>
@@ -16209,7 +21639,7 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5">
         <v>260.23399999999998</v>
@@ -16218,7 +21648,7 @@
         <v>50.526000000000003</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F9" s="18">
         <v>16000000</v>
@@ -16226,7 +21656,7 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="5">
         <v>594.34299999999996</v>
@@ -16235,7 +21665,7 @@
         <v>120</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="18">
         <v>30000000</v>
@@ -16243,7 +21673,7 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5">
         <v>2861.7660000000001</v>
@@ -16252,7 +21682,7 @@
         <v>754</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F11" s="18">
         <v>119994608</v>
@@ -16278,7 +21708,7 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
@@ -16286,15 +21716,15 @@
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="5">
         <v>7.4726749999999995E-2</v>
@@ -16305,7 +21735,7 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="5">
         <v>6.0110249999999997E-2</v>
@@ -16316,7 +21746,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C19" s="5">
         <v>20.098951499999998</v>
@@ -16327,7 +21757,7 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" s="5">
         <v>2.4364887500000001</v>
@@ -16338,7 +21768,7 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C21" s="5">
         <v>29.079670749999998</v>
@@ -16349,7 +21779,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C22" s="5">
         <v>145.13002599999999</v>
@@ -16360,7 +21790,7 @@
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23" s="5">
         <v>225.77786474999999</v>
@@ -16371,7 +21801,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C24" s="5">
         <v>1135.13439025</v>
@@ -16394,7 +21824,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="28" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="30"/>
@@ -16402,15 +21832,15 @@
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C29" s="5">
         <v>3.451038</v>
@@ -16421,7 +21851,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5">
         <v>8.6867249999999993E-2</v>
@@ -16432,7 +21862,7 @@
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5">
         <v>48.402952749999997</v>
@@ -16443,7 +21873,7 @@
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" s="5">
         <v>971.68173675000003</v>
@@ -16454,7 +21884,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C33" s="5">
         <v>1008.49731675</v>
@@ -16465,7 +21895,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C34" s="5">
         <v>8743.7607169999992</v>
@@ -16476,7 +21906,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="5">
         <v>2180.6709999999998</v>
@@ -16487,7 +21917,7 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36" s="5">
         <v>12967.218999999999</v>
@@ -16510,10 +21940,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84608353-83C5-4835-B580-A120DB25BDA7}">
-  <dimension ref="B3:H26"/>
+  <dimension ref="B3:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16525,46 +21955,81 @@
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
     <col min="7" max="7" width="22" customWidth="1"/>
     <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="13" max="13" width="17" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="23.5703125" customWidth="1"/>
+    <col min="14" max="14" width="28.7109375" customWidth="1"/>
     <col min="15" max="15" width="18.28515625" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
+    <col min="17" max="17" width="25" customWidth="1"/>
+    <col min="18" max="18" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="33" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
       <c r="E3" s="6"/>
       <c r="F3" s="33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L3" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
@@ -16584,8 +22049,27 @@
       <c r="H5" s="9">
         <v>354.75388593673637</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="9">
+        <v>116.9675579679008</v>
+      </c>
+      <c r="N5" s="9">
+        <v>475.84391209972466</v>
+      </c>
+      <c r="O5" s="6"/>
+      <c r="P5" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>258.5770183008392</v>
+      </c>
+      <c r="R5" s="9">
+        <v>432.44595639221143</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
@@ -16605,8 +22089,27 @@
       <c r="H6" s="9">
         <v>13.082218980789099</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6"/>
+      <c r="P6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
@@ -16626,8 +22129,27 @@
       <c r="H7" s="9">
         <v>1264.7146480560259</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="M7" s="9">
+        <v>52.594332771510764</v>
+      </c>
+      <c r="N7" s="9">
+        <v>312.956559834568</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>179.81490915017321</v>
+      </c>
+      <c r="R7" s="9">
+        <v>272.53465920976879</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
@@ -16647,8 +22169,27 @@
       <c r="H8" s="9">
         <v>136.92517867088281</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="9">
+        <v>102.74508735107636</v>
+      </c>
+      <c r="N8" s="9">
+        <v>392.31696983903601</v>
+      </c>
+      <c r="O8" s="6"/>
+      <c r="P8" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>243.05643877239564</v>
+      </c>
+      <c r="R8" s="9">
+        <v>342.15849962205618</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
@@ -16668,8 +22209,27 @@
       <c r="H9" s="9">
         <v>756.47693457603395</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="9">
+        <v>73.616771484412283</v>
+      </c>
+      <c r="N9" s="9">
+        <v>931.34081055482238</v>
+      </c>
+      <c r="O9" s="6"/>
+      <c r="P9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>355.89094934470438</v>
+      </c>
+      <c r="R9" s="9">
+        <v>1835.4439761470239</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
@@ -16689,8 +22249,27 @@
       <c r="H10" s="9">
         <v>129.49137730598397</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="9">
+        <v>33.912947954404366</v>
+      </c>
+      <c r="N10" s="9">
+        <v>186.05480867295162</v>
+      </c>
+      <c r="O10" s="6"/>
+      <c r="P10" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>109.18172677381899</v>
+      </c>
+      <c r="R10" s="9">
+        <v>157.42729716190564</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
@@ -16710,8 +22289,27 @@
       <c r="H11" s="9">
         <v>513.80241379737822</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="9">
+        <v>45.768268213773737</v>
+      </c>
+      <c r="N11" s="9">
+        <v>1670.3729889615454</v>
+      </c>
+      <c r="O11" s="6"/>
+      <c r="P11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>151.86260132221719</v>
+      </c>
+      <c r="R11" s="9">
+        <v>2260.7636965906399</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
@@ -16731,8 +22329,27 @@
       <c r="H12" s="9">
         <v>391.28609972000061</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="9">
+        <v>80.953879269106622</v>
+      </c>
+      <c r="N12" s="9">
+        <v>1514.7138579122741</v>
+      </c>
+      <c r="O12" s="6"/>
+      <c r="P12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>176.3016311645986</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1944.9028407697479</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
@@ -16752,8 +22369,27 @@
       <c r="H13" s="9">
         <v>2373.3484481811456</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="9">
+        <v>154.21090982325117</v>
+      </c>
+      <c r="N13" s="9">
+        <v>774.86873173797937</v>
+      </c>
+      <c r="O13" s="6"/>
+      <c r="P13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>285.87307698277539</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1436.3860562580239</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
@@ -16773,8 +22409,27 @@
       <c r="H14" s="9">
         <v>340.07605986595098</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="9">
+        <v>56.076129866845363</v>
+      </c>
+      <c r="N14" s="9">
+        <v>1189.074894431408</v>
+      </c>
+      <c r="O14" s="6"/>
+      <c r="P14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>146.67248694164562</v>
+      </c>
+      <c r="R14" s="9">
+        <v>434.38044401757799</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
@@ -16794,8 +22449,27 @@
       <c r="H15" s="9">
         <v>160.04542603492678</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="9">
+        <v>6.2979363248562938</v>
+      </c>
+      <c r="N15" s="9">
+        <v>64.549612987827373</v>
+      </c>
+      <c r="O15" s="6"/>
+      <c r="P15" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>38.898578356080634</v>
+      </c>
+      <c r="R15" s="9">
+        <v>55.772452569608582</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
@@ -16815,8 +22489,27 @@
       <c r="H16" s="9">
         <v>153.68513107299742</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="9">
+        <v>47.52043738782654</v>
+      </c>
+      <c r="N16" s="9">
+        <v>257.27325550513859</v>
+      </c>
+      <c r="O16" s="6"/>
+      <c r="P16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>138.28250785730819</v>
+      </c>
+      <c r="R16" s="9">
+        <v>227.48778471978022</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
@@ -16836,8 +22529,27 @@
       <c r="H17" s="9">
         <v>1831.436336565014</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="9">
+        <v>24.053965400408423</v>
+      </c>
+      <c r="N17" s="9">
+        <v>629.07690983426869</v>
+      </c>
+      <c r="O17" s="6"/>
+      <c r="P17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>63.3582258066413</v>
+      </c>
+      <c r="R17" s="9">
+        <v>302.53092187613936</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
@@ -16857,8 +22569,27 @@
       <c r="H18" s="9">
         <v>137.20876836776702</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="9">
+        <v>37.062456151499617</v>
+      </c>
+      <c r="N18" s="9">
+        <v>180.92747136796459</v>
+      </c>
+      <c r="O18" s="6"/>
+      <c r="P18" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>86.302870670002321</v>
+      </c>
+      <c r="R18" s="9">
+        <v>164.53681454989839</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>14</v>
       </c>
@@ -16878,8 +22609,27 @@
       <c r="H19" s="9">
         <v>1.138963699340814E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M19" s="9">
+        <v>72.169490972404446</v>
+      </c>
+      <c r="N19" s="9">
+        <v>2.0373339553760363</v>
+      </c>
+      <c r="O19" s="6"/>
+      <c r="P19" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>174.21016514441419</v>
+      </c>
+      <c r="R19" s="9">
+        <v>2.5058530379100152</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>15</v>
       </c>
@@ -16899,8 +22649,27 @@
       <c r="H20" s="9">
         <v>132.3307879447934</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="9">
+        <v>11.74417039926348</v>
+      </c>
+      <c r="N20" s="9">
+        <v>52.689325368155622</v>
+      </c>
+      <c r="O20" s="6"/>
+      <c r="P20" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>30.829705897046335</v>
+      </c>
+      <c r="R20" s="9">
+        <v>36.414828965375094</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
@@ -16920,8 +22689,27 @@
       <c r="H21" s="9">
         <v>67.029065704345655</v>
       </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0</v>
+      </c>
+      <c r="N21" s="9">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6"/>
+      <c r="P21" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0</v>
+      </c>
+      <c r="R21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
@@ -16941,8 +22729,27 @@
       <c r="H22" s="9">
         <v>129.50369310378977</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M22" s="9">
+        <v>515.23842489668948</v>
+      </c>
+      <c r="N22" s="9">
+        <v>1777.9952695612719</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>605.00173808276611</v>
+      </c>
+      <c r="R22" s="9">
+        <v>1970.7947727259921</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>18</v>
       </c>
@@ -16962,8 +22769,27 @@
       <c r="H23" s="9">
         <v>70.392898368835375</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="9">
+        <v>36.932328873944826</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6"/>
+      <c r="P23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>91.186240467879827</v>
+      </c>
+      <c r="R23" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>19</v>
       </c>
@@ -16983,8 +22809,27 @@
       <c r="H24" s="9">
         <v>294.2160739898676</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6"/>
+      <c r="P24" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0</v>
+      </c>
+      <c r="R24" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>20</v>
       </c>
@@ -17004,8 +22849,27 @@
       <c r="H25" s="9">
         <v>419.80496568679763</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="L25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6"/>
+      <c r="P25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0</v>
+      </c>
+      <c r="R25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
@@ -17025,11 +22889,32 @@
       <c r="H26" s="9">
         <v>14.60571494102474</v>
       </c>
+      <c r="L26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M26" s="9">
+        <v>12.9319043519417</v>
+      </c>
+      <c r="N26" s="9">
+        <v>146.2173435912018</v>
+      </c>
+      <c r="O26" s="6"/>
+      <c r="P26" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>44.201604327675142</v>
+      </c>
+      <c r="R26" s="9">
+        <v>174.7671703070786</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:R3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/sgd_assignment1_tables&graphs.xlsx
+++ b/sgd_assignment1_tables&graphs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\OneDrive\Ambiente de Trabalho\SGD-TPCH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41880C3-4DBE-4B3D-8E65-357CC22748AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44209FB3-65C3-49FF-964D-4F07534269FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{247B33D0-6AB8-40A3-8C41-44B27BA98C90}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="93">
   <si>
     <t>Q1</t>
   </si>
@@ -316,6 +316,9 @@
   <si>
     <t>MySQL vs PostgreSQL Query Execution With NO Keys and 5 Threads</t>
   </si>
+  <si>
+    <t>Slowdown</t>
+  </si>
 </sst>
 </file>
 
@@ -344,7 +347,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -447,6 +450,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -512,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -571,6 +580,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,9 +614,16 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,7 +1334,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$M$4</c:f>
+              <c:f>Graphs!$N$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1333,7 +1355,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$L$5:$L$26</c:f>
+              <c:f>Graphs!$M$5:$M$26</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -1407,7 +1429,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$M$5:$M$26</c:f>
+              <c:f>Graphs!$N$5:$N$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1491,7 +1513,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$N$4</c:f>
+              <c:f>Graphs!$O$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1512,7 +1534,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$L$5:$L$26</c:f>
+              <c:f>Graphs!$M$5:$M$26</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -1586,7 +1608,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$N$5:$N$26</c:f>
+              <c:f>Graphs!$O$5:$O$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -1948,7 +1970,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$Q$4</c:f>
+              <c:f>Graphs!$S$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1969,7 +1991,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$P$5:$P$26</c:f>
+              <c:f>Graphs!$R$5:$R$26</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -2043,7 +2065,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$Q$5:$Q$26</c:f>
+              <c:f>Graphs!$S$5:$S$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2127,7 +2149,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$R$4</c:f>
+              <c:f>Graphs!$T$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2148,7 +2170,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$P$5:$P$26</c:f>
+              <c:f>Graphs!$R$5:$R$26</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -2222,7 +2244,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$R$5:$R$26</c:f>
+              <c:f>Graphs!$T$5:$T$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -2417,6 +2439,1232 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2017793808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>Query</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" baseline="0"/>
+              <a:t> Execution Time Postgres with keys 1 vs 5 Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$B$5:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$C$5:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>63.33561320304868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.043313217163041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30.264796781539836</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.154176902770963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.352737569808902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>22.518476152420021</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29.981958913803037</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.54359254837032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>49.515168905258122</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.226707077026319</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.1300405979156469</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.720487594604435</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.191355419158882</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20.33224554061886</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.764234161376905</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.318540334701488</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>239.14626135826038</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.20555338859554</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>170.32293924419997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.802513551712023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19ED-406E-BE5C-307BD80EB99D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$B$5:$B$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$H$5:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>109.16129084428115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22.587079962094588</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.364525357882101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68.793136835098224</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.004720250765388</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.386156717936132</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.922709345817537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.853649298349985</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.51390922069497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.464872876802986</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15.19534341494238</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.032307187716121</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81.264069875081219</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.734125415484051</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98.61200451850884</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18.053256114323869</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>279.53225533167466</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.160212278366053</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>254.94487826328483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>52.929609457651736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-19ED-406E-BE5C-307BD80EB99D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2011527455"/>
+        <c:axId val="2011527871"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2011527455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011527871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2011527871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2011527455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Query Execution Time Postgres with keys 1 vs 5 Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="pt-PT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$M$5:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$N$5:$N$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>116.9675579679008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.594332771510764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>102.74508735107636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.616771484412283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.912947954404366</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.768268213773737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80.953879269106622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>154.21090982325117</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.076129866845363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.2979363248562938</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.52043738782654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.053965400408423</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.062456151499617</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>72.169490972404446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>11.74417039926348</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>515.23842489668948</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.932328873944826</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.9319043519417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-78EB-4F98-8B38-74E476C86C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Graphs!$M$5:$M$26</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Q5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Q6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Q7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Q8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Q9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Q10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Q11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Q12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Q13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Q14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Q15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Q16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Q17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Q18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Q19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Q20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Q21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Q22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Graphs!$S$5:$S$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>258.5770183008392</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>179.81490915017321</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>243.05643877239564</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>355.89094934470438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>109.18172677381899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>151.86260132221719</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>176.3016311645986</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>285.87307698277539</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>146.67248694164562</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.898578356080634</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>138.28250785730819</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>63.3582258066413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86.302870670002321</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>174.21016514441419</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30.829705897046335</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>605.00173808276611</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>91.186240467879827</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44.201604327675142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-78EB-4F98-8B38-74E476C86C5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1969490079"/>
+        <c:axId val="1969490495"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1969490079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1969490495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1969490495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1969490079"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5382,7 +6630,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$G$4</c:f>
+              <c:f>Graphs!$H$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5403,7 +6651,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$F$5:$F$26</c:f>
+              <c:f>Graphs!$G$5:$G$26</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -5477,7 +6725,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$G$5:$G$26</c:f>
+              <c:f>Graphs!$H$5:$H$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -5561,7 +6809,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Graphs!$H$4</c:f>
+              <c:f>Graphs!$I$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5582,7 +6830,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Graphs!$F$5:$F$26</c:f>
+              <c:f>Graphs!$G$5:$G$26</c:f>
               <c:strCache>
                 <c:ptCount val="22"/>
                 <c:pt idx="0">
@@ -5656,7 +6904,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Graphs!$H$5:$H$26</c:f>
+              <c:f>Graphs!$I$5:$I$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="22"/>
@@ -6647,6 +7895,86 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8519,6 +9847,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -12706,15 +15040,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1387930</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>27214</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12749,10 +15083,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1415143</xdr:colOff>
       <xdr:row>59</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>81643</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12787,10 +15121,10 @@
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1537607</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12819,13 +15153,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1102177</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>59189</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>217714</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>16328</xdr:rowOff>
@@ -12855,14 +15189,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>1102178</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>32656</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>217713</xdr:colOff>
+      <xdr:colOff>435429</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>4082</xdr:rowOff>
     </xdr:to>
@@ -12891,16 +15225,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>428624</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>16329</xdr:rowOff>
+      <xdr:rowOff>27213</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:rowOff>176892</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12927,14 +15261,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>483052</xdr:colOff>
       <xdr:row>55</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>54429</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1102178</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
       <xdr:row>77</xdr:row>
       <xdr:rowOff>13606</xdr:rowOff>
     </xdr:to>
@@ -12956,6 +15290,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1476373</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>16329</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>544284</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7EA41F5-75E2-5C36-E1CA-93E675E89DC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>1626053</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>84364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>122463</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F90D9BC-874A-E2B5-2CFE-4643BED40031}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13283,17 +15689,17 @@
   </cols>
   <sheetData>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -14194,17 +16600,17 @@
       <c r="N37" s="6"/>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="24" t="s">
+      <c r="B38" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -15477,17 +17883,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="7" t="s">
@@ -16267,17 +18673,17 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
@@ -16991,17 +19397,17 @@
       </c>
     </row>
     <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65" s="24" t="s">
+      <c r="C65" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="25"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="27"/>
     </row>
     <row r="66" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C66" s="7" t="s">
@@ -17482,7 +19888,7 @@
       <c r="G81" s="7">
         <v>1.21159553527832E-2</v>
       </c>
-      <c r="H81" s="34">
+      <c r="H81" s="25">
         <v>4.2688082064809996E-3</v>
       </c>
       <c r="I81" s="7">
@@ -17715,17 +20121,17 @@
       </c>
     </row>
     <row r="99" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C99" s="24" t="s">
+      <c r="C99" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="D99" s="24"/>
-      <c r="E99" s="24"/>
-      <c r="F99" s="24"/>
-      <c r="G99" s="24"/>
-      <c r="H99" s="24"/>
-      <c r="I99" s="24"/>
-      <c r="J99" s="25"/>
-      <c r="K99" s="25"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="F99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+      <c r="J99" s="27"/>
+      <c r="K99" s="27"/>
     </row>
     <row r="100" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C100" s="7" t="s">
@@ -18473,17 +20879,17 @@
   </cols>
   <sheetData>
     <row r="5" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
     </row>
     <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" s="19" t="s">
@@ -19259,17 +21665,17 @@
       <c r="K34" s="6"/>
     </row>
     <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="25"/>
-      <c r="K35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="27"/>
     </row>
     <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" s="7" t="s">
@@ -19983,17 +22389,17 @@
       </c>
     </row>
     <row r="66" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
     </row>
     <row r="67" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C67" s="7" t="s">
@@ -20776,17 +23182,17 @@
       </c>
     </row>
     <row r="95" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C95" s="26" t="s">
+      <c r="C95" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="D95" s="26"/>
-      <c r="E95" s="26"/>
-      <c r="F95" s="26"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="26"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="27"/>
-      <c r="K95" s="27"/>
+      <c r="D95" s="28"/>
+      <c r="E95" s="28"/>
+      <c r="F95" s="28"/>
+      <c r="G95" s="28"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
     </row>
     <row r="96" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C96" s="7" t="s">
@@ -21515,7 +23921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB0DE57-CC1C-42F4-9D16-9132C59C104F}">
   <dimension ref="B2:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -21529,13 +23935,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
@@ -21707,11 +24113,11 @@
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
@@ -21823,11 +24229,11 @@
       <c r="E26" s="6"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="28" t="s">
+      <c r="B27" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -21940,10 +24346,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84608353-83C5-4835-B580-A120DB25BDA7}">
-  <dimension ref="B3:R26"/>
+  <dimension ref="B3:U27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21951,973 +24357,1360 @@
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="6.28515625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
-    <col min="8" max="8" width="26.42578125" customWidth="1"/>
-    <col min="11" max="11" width="4.85546875" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="23.5703125" customWidth="1"/>
-    <col min="14" max="14" width="28.7109375" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" customWidth="1"/>
-    <col min="16" max="16" width="18.7109375" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="29.28515625" customWidth="1"/>
+    <col min="5" max="6" width="32.140625" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="22" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="28.7109375" customWidth="1"/>
+    <col min="16" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" customWidth="1"/>
+    <col min="19" max="19" width="25" customWidth="1"/>
+    <col min="20" max="20" width="29.28515625" customWidth="1"/>
+    <col min="21" max="21" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B3" s="33" t="s">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B3" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="6"/>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="6"/>
+      <c r="G3" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="L3" s="33" t="s">
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="M3" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="33" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B4" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="I4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="J4" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="M4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="N4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="10" t="s">
+      <c r="O4" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="6"/>
-      <c r="P4" s="7" t="s">
+      <c r="P4" s="38" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="Q4" s="10" t="s">
+      <c r="S4" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="10" t="s">
+      <c r="T4" s="36" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U4" s="38" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="9">
         <v>63.33561320304868</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="37">
         <v>315.1757144927974</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="24">
+        <f>((D5-C5)/C5)*100</f>
+        <v>397.62795140606028</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="H5" s="9">
         <v>109.16129084428115</v>
       </c>
-      <c r="H5" s="9">
+      <c r="I5" s="37">
         <v>354.75388593673637</v>
       </c>
-      <c r="L5" s="11" t="s">
+      <c r="J5" s="39">
+        <f>((I5-H5)/H5)*100</f>
+        <v>224.98139513831293</v>
+      </c>
+      <c r="M5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>116.9675579679008</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="37">
         <v>475.84391209972466</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="P5" s="11" t="s">
+      <c r="P5" s="24">
+        <f>((O5-N5)/N5)*100</f>
+        <v>306.81700154012759</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="S5" s="9">
         <v>258.5770183008392</v>
       </c>
-      <c r="R5" s="9">
+      <c r="T5" s="37">
         <v>432.44595639221143</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U5" s="39">
+        <f>((T5-S5)/S5)*100</f>
+        <v>67.240677162224031</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9">
         <v>12.043313217163041</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="37">
         <v>9.6070110321044453</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="24">
+        <f t="shared" ref="E6:E26" si="0">((D6-C6)/C6)*100</f>
+        <v>-20.229501144141945</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H6" s="9">
         <v>22.587079962094588</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I6" s="37">
         <v>13.082218980789099</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="J6" s="39">
+        <f t="shared" ref="J6:J26" si="1">((I6-H6)/H6)*100</f>
+        <v>-42.080963972573933</v>
+      </c>
+      <c r="M6" s="11" t="s">
         <v>1</v>
-      </c>
-      <c r="M6" s="9">
-        <v>0</v>
       </c>
       <c r="N6" s="9">
         <v>0</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="11" t="s">
+      <c r="O6" s="37">
+        <v>0</v>
+      </c>
+      <c r="P6" s="24" t="e">
+        <f>((O6-N6)/N6)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="S6" s="9">
         <v>0</v>
       </c>
-      <c r="R6" s="9">
+      <c r="T6" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U6" s="39" t="e">
+        <f t="shared" ref="U6:U26" si="2">((T6-S6)/S6)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B7" s="11" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="9">
         <v>30.264796781539836</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="37">
         <v>1062.5035796642237</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="24">
+        <f t="shared" si="0"/>
+        <v>3410.6912738707138</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="9">
+      <c r="H7" s="9">
         <v>65.364525357882101</v>
       </c>
-      <c r="H7" s="9">
+      <c r="I7" s="37">
         <v>1264.7146480560259</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="J7" s="39">
+        <f t="shared" si="1"/>
+        <v>1834.8639665498895</v>
+      </c>
+      <c r="M7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="M7" s="9">
+      <c r="N7" s="9">
         <v>52.594332771510764</v>
       </c>
-      <c r="N7" s="9">
+      <c r="O7" s="37">
         <v>312.956559834568</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="11" t="s">
+      <c r="P7" s="24">
+        <f>((O7-N7)/N7)*100</f>
+        <v>495.03855899107424</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="S7" s="9">
         <v>179.81490915017321</v>
       </c>
-      <c r="R7" s="9">
+      <c r="T7" s="37">
         <v>272.53465920976879</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U7" s="39">
+        <f t="shared" si="2"/>
+        <v>51.563994608567342</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="9">
         <v>42.154176902770963</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="37">
         <v>158.273604679107</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="11" t="s">
+      <c r="E8" s="24">
+        <f t="shared" si="0"/>
+        <v>275.46363446774603</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="9">
+      <c r="H8" s="9">
         <v>68.793136835098224</v>
       </c>
-      <c r="H8" s="9">
+      <c r="I8" s="37">
         <v>136.92517867088281</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="J8" s="39">
+        <f t="shared" si="1"/>
+        <v>99.039010241823505</v>
+      </c>
+      <c r="M8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="9">
+      <c r="N8" s="9">
         <v>102.74508735107636</v>
       </c>
-      <c r="N8" s="9">
+      <c r="O8" s="37">
         <v>392.31696983903601</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="11" t="s">
+      <c r="P8" s="24">
+        <f>((O8-N8)/N8)*100</f>
+        <v>281.83525845717827</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="S8" s="9">
         <v>243.05643877239564</v>
       </c>
-      <c r="R8" s="9">
+      <c r="T8" s="37">
         <v>342.15849962205618</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U8" s="39">
+        <f t="shared" si="2"/>
+        <v>40.773271158828379</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="9">
         <v>31.352737569808902</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="37">
         <v>613.1258735656736</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="24">
+        <f t="shared" si="0"/>
+        <v>1855.5736471193593</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="H9" s="9">
         <v>65.004720250765388</v>
       </c>
-      <c r="H9" s="9">
+      <c r="I9" s="37">
         <v>756.47693457603395</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="J9" s="39">
+        <f t="shared" si="1"/>
+        <v>1063.72615966627</v>
+      </c>
+      <c r="M9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="M9" s="9">
+      <c r="N9" s="9">
         <v>73.616771484412283</v>
       </c>
-      <c r="N9" s="9">
+      <c r="O9" s="37">
         <v>931.34081055482238</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="11" t="s">
+      <c r="P9" s="24">
+        <f>((O9-N9)/N9)*100</f>
+        <v>1165.1204226635039</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="Q9" s="9">
+      <c r="S9" s="9">
         <v>355.89094934470438</v>
       </c>
-      <c r="R9" s="9">
+      <c r="T9" s="37">
         <v>1835.4439761470239</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U9" s="39">
+        <f t="shared" si="2"/>
+        <v>415.73213073459544</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="9">
         <v>22.518476152420021</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="37">
         <v>91.45528554916379</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="11" t="s">
+      <c r="E10" s="24">
+        <f t="shared" si="0"/>
+        <v>306.13443347646438</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="9">
+      <c r="H10" s="9">
         <v>66.386156717936132</v>
       </c>
-      <c r="H10" s="9">
+      <c r="I10" s="37">
         <v>129.49137730598397</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="J10" s="39">
+        <f t="shared" si="1"/>
+        <v>95.057800764354454</v>
+      </c>
+      <c r="M10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="9">
+      <c r="N10" s="9">
         <v>33.912947954404366</v>
       </c>
-      <c r="N10" s="9">
+      <c r="O10" s="37">
         <v>186.05480867295162</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="11" t="s">
+      <c r="P10" s="24">
+        <f>((O10-N10)/N10)*100</f>
+        <v>448.62469910637242</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="Q10" s="9">
+      <c r="S10" s="9">
         <v>109.18172677381899</v>
       </c>
-      <c r="R10" s="9">
+      <c r="T10" s="37">
         <v>157.42729716190564</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U10" s="39">
+        <f t="shared" si="2"/>
+        <v>44.188319615087451</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="9">
         <v>29.981958913803037</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="37">
         <v>457.54776797294579</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="11" t="s">
+      <c r="E11" s="24">
+        <f t="shared" si="0"/>
+        <v>1426.0769627774416</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G11" s="9">
+      <c r="H11" s="9">
         <v>52.922709345817537</v>
       </c>
-      <c r="H11" s="9">
+      <c r="I11" s="37">
         <v>513.80241379737822</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="J11" s="39">
+        <f t="shared" si="1"/>
+        <v>870.85432727941736</v>
+      </c>
+      <c r="M11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M11" s="9">
+      <c r="N11" s="9">
         <v>45.768268213773737</v>
       </c>
-      <c r="N11" s="9">
+      <c r="O11" s="37">
         <v>1670.3729889615454</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="11" t="s">
+      <c r="P11" s="24">
+        <f>((O11-N11)/N11)*100</f>
+        <v>3549.6311836829664</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="S11" s="9">
         <v>151.86260132221719</v>
       </c>
-      <c r="R11" s="9">
+      <c r="T11" s="37">
         <v>2260.7636965906399</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U11" s="39">
+        <f t="shared" si="2"/>
+        <v>1388.6902218893408</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="9">
         <v>30.54359254837032</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="37">
         <v>246.63266000747643</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="11" t="s">
+      <c r="E12" s="24">
+        <f t="shared" si="0"/>
+        <v>707.47757362496543</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="9">
+      <c r="H12" s="9">
         <v>55.853649298349985</v>
       </c>
-      <c r="H12" s="9">
+      <c r="I12" s="37">
         <v>391.28609972000061</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="J12" s="39">
+        <f t="shared" si="1"/>
+        <v>600.55601493447966</v>
+      </c>
+      <c r="M12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="9">
+      <c r="N12" s="9">
         <v>80.953879269106622</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="37">
         <v>1514.7138579122741</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="11" t="s">
+      <c r="P12" s="24">
+        <f>((O12-N12)/N12)*100</f>
+        <v>1771.0824874458051</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="S12" s="9">
         <v>176.3016311645986</v>
       </c>
-      <c r="R12" s="9">
+      <c r="T12" s="37">
         <v>1944.9028407697479</v>
       </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U12" s="39">
+        <f t="shared" si="2"/>
+        <v>1003.1678084441255</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="9">
         <v>49.515168905258122</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="37">
         <v>2299.8378600120523</v>
       </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="11" t="s">
+      <c r="E13" s="24">
+        <f t="shared" si="0"/>
+        <v>4544.7137530976443</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="9">
+      <c r="H13" s="9">
         <v>99.51390922069497</v>
       </c>
-      <c r="H13" s="9">
+      <c r="I13" s="37">
         <v>2373.3484481811456</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="J13" s="39">
+        <f t="shared" si="1"/>
+        <v>2284.9414285571879</v>
+      </c>
+      <c r="M13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="9">
+      <c r="N13" s="9">
         <v>154.21090982325117</v>
       </c>
-      <c r="N13" s="9">
+      <c r="O13" s="37">
         <v>774.86873173797937</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="11" t="s">
+      <c r="P13" s="24">
+        <f>((O13-N13)/N13)*100</f>
+        <v>402.47335459345595</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="S13" s="9">
         <v>285.87307698277539</v>
       </c>
-      <c r="R13" s="9">
+      <c r="T13" s="37">
         <v>1436.3860562580239</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U13" s="39">
+        <f t="shared" si="2"/>
+        <v>402.45587007291704</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="9">
         <v>32.226707077026319</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="37">
         <v>189.14476289749101</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="24">
+        <f t="shared" si="0"/>
+        <v>486.91929785258139</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9">
+      <c r="H14" s="9">
         <v>65.464872876802986</v>
       </c>
-      <c r="H14" s="9">
+      <c r="I14" s="37">
         <v>340.07605986595098</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="J14" s="39">
+        <f t="shared" si="1"/>
+        <v>419.47868363837381</v>
+      </c>
+      <c r="M14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="9">
+      <c r="N14" s="9">
         <v>56.076129866845363</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="37">
         <v>1189.074894431408</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="11" t="s">
+      <c r="P14" s="24">
+        <f>((O14-N14)/N14)*100</f>
+        <v>2020.46533392177</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="S14" s="9">
         <v>146.67248694164562</v>
       </c>
-      <c r="R14" s="9">
+      <c r="T14" s="37">
         <v>434.38044401757799</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U14" s="39">
+        <f t="shared" si="2"/>
+        <v>196.15673196459701</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C15" s="9">
         <v>7.1300405979156469</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="37">
         <v>64.844833564758275</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="11" t="s">
+      <c r="E15" s="24">
+        <f t="shared" si="0"/>
+        <v>809.45952795436574</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="9">
+      <c r="H15" s="9">
         <v>15.19534341494238</v>
       </c>
-      <c r="H15" s="9">
+      <c r="I15" s="37">
         <v>160.04542603492678</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="J15" s="39">
+        <f t="shared" si="1"/>
+        <v>953.25310303645847</v>
+      </c>
+      <c r="M15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="M15" s="9">
+      <c r="N15" s="9">
         <v>6.2979363248562938</v>
       </c>
-      <c r="N15" s="9">
+      <c r="O15" s="37">
         <v>64.549612987827373</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="11" t="s">
+      <c r="P15" s="24">
+        <f>((O15-N15)/N15)*100</f>
+        <v>924.9327661994148</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="Q15" s="9">
+      <c r="S15" s="9">
         <v>38.898578356080634</v>
       </c>
-      <c r="R15" s="9">
+      <c r="T15" s="37">
         <v>55.772452569608582</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U15" s="39">
+        <f t="shared" si="2"/>
+        <v>43.379154011910622</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
       <c r="C16" s="9">
         <v>29.720487594604435</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="37">
         <v>132.82670269012402</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="11" t="s">
+      <c r="E16" s="24">
+        <f t="shared" si="0"/>
+        <v>346.91966195816337</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="9">
+      <c r="H16" s="9">
         <v>62.032307187716121</v>
       </c>
-      <c r="H16" s="9">
+      <c r="I16" s="37">
         <v>153.68513107299742</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="J16" s="39">
+        <f t="shared" si="1"/>
+        <v>147.75014511056384</v>
+      </c>
+      <c r="M16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M16" s="9">
+      <c r="N16" s="9">
         <v>47.52043738782654</v>
       </c>
-      <c r="N16" s="9">
+      <c r="O16" s="37">
         <v>257.27325550513859</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="11" t="s">
+      <c r="P16" s="24">
+        <f>((O16-N16)/N16)*100</f>
+        <v>441.39496529769968</v>
+      </c>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q16" s="9">
+      <c r="S16" s="9">
         <v>138.28250785730819</v>
       </c>
-      <c r="R16" s="9">
+      <c r="T16" s="37">
         <v>227.48778471978022</v>
       </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U16" s="39">
+        <f t="shared" si="2"/>
+        <v>64.509443923682468</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="9">
         <v>62.191355419158882</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="37">
         <v>1536.41551880836</v>
       </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="24">
+        <f t="shared" si="0"/>
+        <v>2370.4647590540317</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="9">
+      <c r="H17" s="9">
         <v>81.264069875081219</v>
       </c>
-      <c r="H17" s="9">
+      <c r="I17" s="37">
         <v>1831.436336565014</v>
       </c>
-      <c r="L17" s="11" t="s">
+      <c r="J17" s="39">
+        <f t="shared" si="1"/>
+        <v>2153.6852256849679</v>
+      </c>
+      <c r="M17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="9">
+      <c r="N17" s="9">
         <v>24.053965400408423</v>
       </c>
-      <c r="N17" s="9">
+      <c r="O17" s="37">
         <v>629.07690983426869</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="11" t="s">
+      <c r="P17" s="24">
+        <f>((O17-N17)/N17)*100</f>
+        <v>2515.273196591475</v>
+      </c>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q17" s="9">
+      <c r="S17" s="9">
         <v>63.3582258066413</v>
       </c>
-      <c r="R17" s="9">
+      <c r="T17" s="37">
         <v>302.53092187613936</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U17" s="39">
+        <f t="shared" si="2"/>
+        <v>377.49272967240762</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="9">
         <v>20.33224554061886</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="37">
         <v>122.8157083988186</v>
       </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="24">
+        <f t="shared" si="0"/>
+        <v>504.04399579703494</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="9">
+      <c r="H18" s="9">
         <v>34.734125415484051</v>
       </c>
-      <c r="H18" s="9">
+      <c r="I18" s="37">
         <v>137.20876836776702</v>
       </c>
-      <c r="L18" s="11" t="s">
+      <c r="J18" s="39">
+        <f t="shared" si="1"/>
+        <v>295.02583331665238</v>
+      </c>
+      <c r="M18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="M18" s="9">
+      <c r="N18" s="9">
         <v>37.062456151499617</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="37">
         <v>180.92747136796459</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="24">
+        <f>((O18-N18)/N18)*100</f>
+        <v>388.16913436171154</v>
+      </c>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="S18" s="9">
         <v>86.302870670002321</v>
       </c>
-      <c r="R18" s="9">
+      <c r="T18" s="37">
         <v>164.53681454989839</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U18" s="39">
+        <f t="shared" si="2"/>
+        <v>90.650453771161878</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="9">
         <v>37.764234161376905</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="37">
         <v>1.7276906967163046E-2</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="11" t="s">
+      <c r="E19" s="24">
+        <f t="shared" si="0"/>
+        <v>-99.95425060946998</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="9">
+      <c r="H19" s="9">
         <v>98.61200451850884</v>
       </c>
-      <c r="H19" s="9">
+      <c r="I19" s="37">
         <v>1.138963699340814E-2</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="J19" s="39">
+        <f t="shared" si="1"/>
+        <v>-99.988450050225609</v>
+      </c>
+      <c r="M19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="9">
+      <c r="N19" s="9">
         <v>72.169490972404446</v>
       </c>
-      <c r="N19" s="9">
+      <c r="O19" s="37">
         <v>2.0373339553760363</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="24">
+        <f>((O19-N19)/N19)*100</f>
+        <v>-97.177014929819777</v>
+      </c>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q19" s="9">
+      <c r="S19" s="9">
         <v>174.21016514441419</v>
       </c>
-      <c r="R19" s="9">
+      <c r="T19" s="37">
         <v>2.5058530379100152</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U19" s="39">
+        <f t="shared" si="2"/>
+        <v>-98.561591950829765</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="9">
         <v>10.318540334701488</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="37">
         <v>103.31583285331678</v>
       </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="11" t="s">
+      <c r="E20" s="24">
+        <f t="shared" si="0"/>
+        <v>901.2640305902886</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="9">
+      <c r="H20" s="9">
         <v>18.053256114323869</v>
       </c>
-      <c r="H20" s="9">
+      <c r="I20" s="37">
         <v>132.3307879447934</v>
       </c>
-      <c r="L20" s="11" t="s">
+      <c r="J20" s="39">
+        <f t="shared" si="1"/>
+        <v>633.00232992207486</v>
+      </c>
+      <c r="M20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="M20" s="9">
+      <c r="N20" s="9">
         <v>11.74417039926348</v>
       </c>
-      <c r="N20" s="9">
+      <c r="O20" s="37">
         <v>52.689325368155622</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="24">
+        <f>((O20-N20)/N20)*100</f>
+        <v>348.64237810667294</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="S20" s="9">
         <v>30.829705897046335</v>
       </c>
-      <c r="R20" s="9">
+      <c r="T20" s="37">
         <v>36.414828965375094</v>
       </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U20" s="39">
+        <f t="shared" si="2"/>
+        <v>18.116043944693764</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="9">
         <v>0</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="37">
         <v>96.422201824188093</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="11" t="s">
+      <c r="E21" s="24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="9">
+      <c r="H21" s="9">
         <v>0</v>
       </c>
-      <c r="H21" s="9">
+      <c r="I21" s="37">
         <v>67.029065704345655</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="J21" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="M21" s="9">
-        <v>0</v>
       </c>
       <c r="N21" s="9">
         <v>0</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="11" t="s">
+      <c r="O21" s="37">
+        <v>0</v>
+      </c>
+      <c r="P21" s="24" t="e">
+        <f>((O21-N21)/N21)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="9">
+      <c r="S21" s="9">
         <v>0</v>
       </c>
-      <c r="R21" s="9">
+      <c r="T21" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U21" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="9">
         <v>239.14626135826038</v>
       </c>
-      <c r="D22" s="9">
+      <c r="D22" s="37">
         <v>98.033607292175091</v>
       </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="11" t="s">
+      <c r="E22" s="24">
+        <f t="shared" si="0"/>
+        <v>-59.006840945210151</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G22" s="9">
+      <c r="H22" s="9">
         <v>279.53225533167466</v>
       </c>
-      <c r="H22" s="9">
+      <c r="I22" s="37">
         <v>129.50369310378977</v>
       </c>
-      <c r="L22" s="11" t="s">
+      <c r="J22" s="39">
+        <f t="shared" si="1"/>
+        <v>-53.671288148793714</v>
+      </c>
+      <c r="M22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="M22" s="9">
+      <c r="N22" s="9">
         <v>515.23842489668948</v>
       </c>
-      <c r="N22" s="9">
+      <c r="O22" s="37">
         <v>1777.9952695612719</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="24">
+        <f>((O22-N22)/N22)*100</f>
+        <v>245.08204040057336</v>
+      </c>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="Q22" s="9">
+      <c r="S22" s="9">
         <v>605.00173808276611</v>
       </c>
-      <c r="R22" s="9">
+      <c r="T22" s="37">
         <v>1970.7947727259921</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U22" s="39">
+        <f t="shared" si="2"/>
+        <v>225.75026626723198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>18</v>
       </c>
       <c r="C23" s="9">
         <v>21.20555338859554</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="37">
         <v>58.795432758331273</v>
       </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="11" t="s">
+      <c r="E23" s="24">
+        <f t="shared" si="0"/>
+        <v>177.26431694987866</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="9">
+      <c r="H23" s="9">
         <v>46.160212278366053</v>
       </c>
-      <c r="H23" s="9">
+      <c r="I23" s="37">
         <v>70.392898368835375</v>
       </c>
-      <c r="L23" s="11" t="s">
+      <c r="J23" s="39">
+        <f t="shared" si="1"/>
+        <v>52.496912155290232</v>
+      </c>
+      <c r="M23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M23" s="9">
+      <c r="N23" s="9">
         <v>36.932328873944826</v>
       </c>
-      <c r="N23" s="9">
+      <c r="O23" s="37">
         <v>0</v>
       </c>
-      <c r="O23" s="6"/>
-      <c r="P23" s="11" t="s">
+      <c r="P23" s="24">
+        <f>((O23-N23)/N23)*100</f>
+        <v>-100</v>
+      </c>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="S23" s="9">
         <v>91.186240467879827</v>
       </c>
-      <c r="R23" s="9">
+      <c r="T23" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U23" s="39">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>19</v>
       </c>
       <c r="C24" s="9">
         <v>0</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="37">
         <v>352.83998112678483</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="11" t="s">
+      <c r="E24" s="24" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="9">
+      <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="H24" s="9">
+      <c r="I24" s="37">
         <v>294.2160739898676</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="J24" s="39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="M24" s="9">
-        <v>0</v>
       </c>
       <c r="N24" s="9">
         <v>0</v>
       </c>
-      <c r="O24" s="6"/>
-      <c r="P24" s="11" t="s">
+      <c r="O24" s="37">
+        <v>0</v>
+      </c>
+      <c r="P24" s="24" t="e">
+        <f>((O24-N24)/N24)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Q24" s="9">
+      <c r="S24" s="9">
         <v>0</v>
       </c>
-      <c r="R24" s="9">
+      <c r="T24" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U24" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C25" s="9">
         <v>170.32293924419997</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="37">
         <v>441.39785256385738</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="11" t="s">
+      <c r="E25" s="24">
+        <f t="shared" si="0"/>
+        <v>159.15349660036375</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="9">
+      <c r="H25" s="9">
         <v>254.94487826328483</v>
       </c>
-      <c r="H25" s="9">
+      <c r="I25" s="37">
         <v>419.80496568679763</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="J25" s="39">
+        <f t="shared" si="1"/>
+        <v>64.664992898292184</v>
+      </c>
+      <c r="M25" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="M25" s="9">
-        <v>0</v>
       </c>
       <c r="N25" s="9">
         <v>0</v>
       </c>
-      <c r="O25" s="6"/>
-      <c r="P25" s="11" t="s">
+      <c r="O25" s="37">
+        <v>0</v>
+      </c>
+      <c r="P25" s="24" t="e">
+        <f>((O25-N25)/N25)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="Q25" s="9">
+      <c r="S25" s="9">
         <v>0</v>
       </c>
-      <c r="R25" s="9">
+      <c r="T25" s="37">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="U25" s="39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="C26" s="9">
         <v>10.802513551712023</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D26" s="37">
         <v>12.33323616981502</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="11" t="s">
+      <c r="E26" s="24">
+        <f t="shared" si="0"/>
+        <v>14.17005968819546</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="9">
+      <c r="H26" s="9">
         <v>52.929609457651736</v>
       </c>
-      <c r="H26" s="9">
+      <c r="I26" s="37">
         <v>14.60571494102474</v>
       </c>
-      <c r="L26" s="11" t="s">
+      <c r="J26" s="39">
+        <f t="shared" si="1"/>
+        <v>-72.405398243660613</v>
+      </c>
+      <c r="M26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="9">
+      <c r="N26" s="9">
         <v>12.9319043519417</v>
       </c>
-      <c r="N26" s="9">
+      <c r="O26" s="37">
         <v>146.2173435912018</v>
       </c>
-      <c r="O26" s="6"/>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="24">
+        <f>((O26-N26)/N26)*100</f>
+        <v>1030.6713969721523</v>
+      </c>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Q26" s="9">
+      <c r="S26" s="9">
         <v>44.201604327675142</v>
       </c>
-      <c r="R26" s="9">
+      <c r="T26" s="37">
         <v>174.7671703070786</v>
+      </c>
+      <c r="U26" s="39">
+        <f t="shared" si="2"/>
+        <v>295.38648645306034</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="E27" s="13">
+        <f>AVERAGE(E5:E20,E22,E23,E25,E26)</f>
+        <v>925.71138917932387</v>
+      </c>
+      <c r="J27" s="21">
+        <f>AVERAGE(J5:J20,J22,J23,J25,J26)</f>
+        <v>576.2615614239578</v>
+      </c>
+      <c r="P27" s="13">
+        <f>AVERAGE(P5,P7:P20,P22,P26)</f>
+        <v>955.1810096118902</v>
+      </c>
+      <c r="U27" s="21">
+        <f>AVERAGE(U5,U7:U20,U22,U26)</f>
+        <v>272.15835363197658</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
